--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_9_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_9_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1035354.761010993</v>
+        <v>1033060.309551368</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10566402.97955599</v>
+        <v>10566402.97955598</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3132009.182157258</v>
+        <v>3132009.182157261</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8071040.10051622</v>
+        <v>8071040.100516218</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>29.01394971584431</v>
       </c>
       <c r="E2" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>151.2336090195373</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>4.641001266096112</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
@@ -724,10 +724,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H3" t="n">
-        <v>39.72846265221932</v>
+        <v>60.26956811818155</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,25 +819,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>80.08788835274009</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>50.63388649156015</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>16.8201079258493</v>
+        <v>368.3136078596275</v>
       </c>
       <c r="G5" t="n">
-        <v>39.596707611772</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -980,7 +980,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D6" t="n">
-        <v>85.41690802037967</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E6" t="n">
         <v>119.2878878475953</v>
@@ -992,10 +992,10 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H6" t="n">
-        <v>70.03974083464111</v>
+        <v>60.26956811818155</v>
       </c>
       <c r="I6" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
@@ -1065,7 +1065,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
         <v>165.577887163712</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>25.4509946801227</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>175.4647255438872</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>57.36060501828872</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
@@ -1141,13 +1141,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>16.8201079258493</v>
+        <v>234.3853434057875</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D9" t="n">
-        <v>85.41690802037967</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E9" t="n">
         <v>119.2878878475953</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>106.9101097868343</v>
+        <v>76.59883160441252</v>
       </c>
       <c r="T9" t="n">
         <v>157.7484451748619</v>
@@ -1296,22 +1296,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>224.508595795419</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>403.8049235411163</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>299.2369313976097</v>
+        <v>118.4899762833434</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>114.8761432958628</v>
       </c>
       <c r="T11" t="n">
         <v>216.3244889715107</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>249.3297605452148</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1533,19 +1533,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>87.02397815543901</v>
+        <v>165.2028514792897</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>84.1844674293623</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.55702300360286</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>177.9920012840021</v>
       </c>
       <c r="T13" t="n">
-        <v>235.5508264359878</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>279.9497094874595</v>
@@ -1593,10 +1593,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>254.8411711551084</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>403.8049235411163</v>
       </c>
       <c r="H14" t="n">
-        <v>299.2369313976097</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>53.25535856381365</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>114.8761432958628</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.3244889715107</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.4230006050866</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>375.2686534524521</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>97.96836732822619</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7769724665524</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>67.55702300360286</v>
       </c>
       <c r="S16" t="n">
-        <v>177.9920012840021</v>
+        <v>127.5795791475284</v>
       </c>
       <c r="T16" t="n">
-        <v>235.5508264359878</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9497094874595</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
@@ -1830,10 +1830,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>28.56650834546405</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>326.0911403490659</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>403.8049235411163</v>
       </c>
       <c r="H17" t="n">
-        <v>299.2369313976097</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>53.25535856381365</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,16 +1897,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.3244889715107</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.4230006050866</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>15.20399990269466</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7769724665524</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>103.9042395815449</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.55702300360286</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>177.9920012840021</v>
       </c>
       <c r="T19" t="n">
-        <v>235.5508264359878</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>279.9497094874595</v>
@@ -2064,13 +2064,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>148.244343889981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
         <v>406.0233447798626</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>351.9146968080441</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>114.8761432958628</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>369.8232988146258</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2241,7 +2241,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.2028514792897</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>59.20807798439569</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.55702300360286</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>177.9920012840021</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>235.5508264359878</v>
@@ -2307,7 +2307,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>148.244343889981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>165.2028514792897</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.55702300360286</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>177.9920012840021</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>235.5508264359878</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9497094874595</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>260.6465787848957</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>82.04597268398497</v>
       </c>
     </row>
     <row r="26">
@@ -2611,7 +2611,7 @@
         <v>216.3244889715107</v>
       </c>
       <c r="U26" t="n">
-        <v>254.4230006050874</v>
+        <v>254.4230006050866</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7769724665524</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>103.9042395815449</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.55702300360286</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>177.9920012840021</v>
+        <v>171.3050265524631</v>
       </c>
       <c r="T28" t="n">
         <v>235.5508264359878</v>
@@ -2772,13 +2772,13 @@
         <v>279.9497094874595</v>
       </c>
       <c r="V28" t="n">
-        <v>212.1051124453324</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2794,7 +2794,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798634</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
@@ -2952,7 +2952,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7769724665524</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.55702300360286</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>177.9920012840021</v>
+        <v>171.3050265524631</v>
       </c>
       <c r="T31" t="n">
         <v>235.5508264359878</v>
@@ -3009,13 +3009,13 @@
         <v>279.9497094874595</v>
       </c>
       <c r="V31" t="n">
-        <v>118.7039022131915</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -3043,7 +3043,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>403.8049235411174</v>
+        <v>403.8049235411163</v>
       </c>
       <c r="H32" t="n">
         <v>299.2369313976097</v>
@@ -3088,7 +3088,7 @@
         <v>254.4230006050866</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>346.3391791168846</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>178.1566963999784</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>12.00331957209939</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>67.55702300360286</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>177.9920012840021</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>235.5508264359878</v>
@@ -3252,7 +3252,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -3283,7 +3283,7 @@
         <v>403.8049235411163</v>
       </c>
       <c r="H35" t="n">
-        <v>299.2369313976097</v>
+        <v>299.2369313976108</v>
       </c>
       <c r="I35" t="n">
         <v>53.25535856381365</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>103.9042395815449</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.55702300360286</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>177.9920012840021</v>
       </c>
       <c r="T37" t="n">
-        <v>235.5508264359878</v>
+        <v>167.6434859699066</v>
       </c>
       <c r="U37" t="n">
         <v>279.9497094874595</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>63.43136714472577</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
@@ -3523,7 +3523,7 @@
         <v>299.2369313976097</v>
       </c>
       <c r="I38" t="n">
-        <v>53.25535856381365</v>
+        <v>53.25535856381474</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213914</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>158.2222370828585</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.2028514792897</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.55702300360286</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>177.9920012840021</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>235.5508264359878</v>
       </c>
       <c r="U40" t="n">
         <v>279.9497094874595</v>
       </c>
       <c r="V40" t="n">
-        <v>231.9820749231625</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>299.2369313976097</v>
       </c>
       <c r="I41" t="n">
-        <v>53.25535856381365</v>
+        <v>53.25535856381474</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.2028514792897</v>
       </c>
       <c r="H43" t="n">
         <v>144.7769724665524</v>
       </c>
       <c r="I43" t="n">
-        <v>103.9042395815449</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.55702300360286</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>177.9920012840021</v>
       </c>
       <c r="T43" t="n">
         <v>235.5508264359878</v>
@@ -3957,16 +3957,16 @@
         <v>279.9497094874595</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>126.0485752660193</v>
+        <v>67.77424214819179</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -4033,7 +4033,7 @@
         <v>216.3244889715107</v>
       </c>
       <c r="U44" t="n">
-        <v>254.4230006050874</v>
+        <v>254.4230006050866</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4045,7 +4045,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>396.9273063213914</v>
       </c>
     </row>
     <row r="45">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7769724665524</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>103.9042395815449</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>67.55702300360286</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>177.9920012840021</v>
+        <v>171.3050265524631</v>
       </c>
       <c r="T46" t="n">
         <v>235.5508264359878</v>
@@ -4194,10 +4194,10 @@
         <v>279.9497094874595</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>251.0216480225889</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>301.7486275930453</v>
+        <v>512.549549773034</v>
       </c>
       <c r="C2" t="n">
-        <v>295.6644409467195</v>
+        <v>102.4249590863041</v>
       </c>
       <c r="D2" t="n">
-        <v>295.2409150801841</v>
+        <v>73.1179391713098</v>
       </c>
       <c r="E2" t="n">
-        <v>284.9411036374848</v>
+        <v>62.81812772861056</v>
       </c>
       <c r="F2" t="n">
-        <v>132.179882405629</v>
+        <v>45.82811972270218</v>
       </c>
       <c r="G2" t="n">
-        <v>127.4920023388653</v>
+        <v>41.14023965593843</v>
       </c>
       <c r="H2" t="n">
-        <v>127.4920023388653</v>
+        <v>41.14023965593843</v>
       </c>
       <c r="I2" t="n">
         <v>41.14023965593843</v>
@@ -4333,19 +4333,19 @@
         <v>295.3257111236927</v>
       </c>
       <c r="K2" t="n">
+        <v>295.3257111236927</v>
+      </c>
+      <c r="L2" t="n">
+        <v>295.3257111236927</v>
+      </c>
+      <c r="M2" t="n">
         <v>804.4361768659307</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1313.546642608169</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1313.546642608169</v>
       </c>
       <c r="N2" t="n">
         <v>1313.546642608169</v>
       </c>
       <c r="O2" t="n">
-        <v>1313.546642608169</v>
+        <v>1695.294330312065</v>
       </c>
       <c r="P2" t="n">
         <v>1695.294330312065</v>
@@ -4357,25 +4357,25 @@
         <v>2057.011982796922</v>
       </c>
       <c r="S2" t="n">
-        <v>1921.730907591022</v>
+        <v>2057.011982796922</v>
       </c>
       <c r="T2" t="n">
-        <v>1699.524423537881</v>
+        <v>2057.011982796922</v>
       </c>
       <c r="U2" t="n">
-        <v>1442.463931797391</v>
+        <v>2057.011982796922</v>
       </c>
       <c r="V2" t="n">
-        <v>1092.626377133872</v>
+        <v>1707.174428133402</v>
       </c>
       <c r="W2" t="n">
-        <v>708.8660762690406</v>
+        <v>1323.414127268571</v>
       </c>
       <c r="X2" t="n">
-        <v>708.8660762690406</v>
+        <v>922.7707294375234</v>
       </c>
       <c r="Y2" t="n">
-        <v>307.9294032171307</v>
+        <v>922.7707294375234</v>
       </c>
     </row>
     <row r="3">
@@ -4403,7 +4403,7 @@
         <v>102.0185912904653</v>
       </c>
       <c r="H3" t="n">
-        <v>61.88883103569826</v>
+        <v>41.14023965593843</v>
       </c>
       <c r="I3" t="n">
         <v>41.14023965593843</v>
@@ -4415,19 +4415,19 @@
         <v>233.9530972185717</v>
       </c>
       <c r="L3" t="n">
-        <v>743.0635629608098</v>
+        <v>233.9530972185717</v>
       </c>
       <c r="M3" t="n">
-        <v>1252.174028703048</v>
+        <v>500.1210662075771</v>
       </c>
       <c r="N3" t="n">
-        <v>1252.174028703048</v>
+        <v>1009.231531949815</v>
       </c>
       <c r="O3" t="n">
-        <v>1252.174028703048</v>
+        <v>1518.341997692053</v>
       </c>
       <c r="P3" t="n">
-        <v>1677.607998750308</v>
+        <v>2027.452463434292</v>
       </c>
       <c r="Q3" t="n">
         <v>2027.452463434292</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.5401581908238</v>
+        <v>281.5317412549881</v>
       </c>
       <c r="C4" t="n">
-        <v>420.4467857525403</v>
+        <v>281.5317412549881</v>
       </c>
       <c r="D4" t="n">
-        <v>420.4467857525403</v>
+        <v>122.0370965778981</v>
       </c>
       <c r="E4" t="n">
-        <v>259.5359706208598</v>
+        <v>41.14023965593843</v>
       </c>
       <c r="F4" t="n">
-        <v>259.5359706208598</v>
+        <v>41.14023965593843</v>
       </c>
       <c r="G4" t="n">
-        <v>92.28557954640323</v>
+        <v>41.14023965593843</v>
       </c>
       <c r="H4" t="n">
-        <v>92.28557954640323</v>
+        <v>41.14023965593843</v>
       </c>
       <c r="I4" t="n">
         <v>41.14023965593843</v>
@@ -4512,28 +4512,28 @@
         <v>1570.539136276788</v>
       </c>
       <c r="R4" t="n">
-        <v>1570.539136276788</v>
+        <v>1485.266417952188</v>
       </c>
       <c r="S4" t="n">
-        <v>1570.539136276788</v>
+        <v>1485.266417952188</v>
       </c>
       <c r="T4" t="n">
-        <v>1570.539136276788</v>
+        <v>1485.266417952188</v>
       </c>
       <c r="U4" t="n">
-        <v>1570.539136276788</v>
+        <v>1485.266417952188</v>
       </c>
       <c r="V4" t="n">
-        <v>1296.65339121631</v>
+        <v>1211.38067289171</v>
       </c>
       <c r="W4" t="n">
-        <v>1017.583726725185</v>
+        <v>932.3110084005843</v>
       </c>
       <c r="X4" t="n">
-        <v>779.2398645848682</v>
+        <v>693.9671462602678</v>
       </c>
       <c r="Y4" t="n">
-        <v>779.2398645848682</v>
+        <v>469.2314476490325</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>605.3266126960634</v>
+        <v>1646.790803132432</v>
       </c>
       <c r="C5" t="n">
-        <v>195.2020220093335</v>
+        <v>1236.666212445702</v>
       </c>
       <c r="D5" t="n">
-        <v>194.7784961427981</v>
+        <v>832.2022825387626</v>
       </c>
       <c r="E5" t="n">
-        <v>184.4786847000989</v>
+        <v>417.8620670556593</v>
       </c>
       <c r="F5" t="n">
-        <v>167.4886766941905</v>
+        <v>45.82811972270218</v>
       </c>
       <c r="G5" t="n">
-        <v>127.4920023388653</v>
+        <v>41.14023965593843</v>
       </c>
       <c r="H5" t="n">
-        <v>127.4920023388653</v>
+        <v>41.14023965593843</v>
       </c>
       <c r="I5" t="n">
         <v>41.14023965593843</v>
@@ -4570,25 +4570,25 @@
         <v>295.3257111236927</v>
       </c>
       <c r="K5" t="n">
-        <v>804.4361768659307</v>
+        <v>295.3257111236927</v>
       </c>
       <c r="L5" t="n">
         <v>804.4361768659307</v>
       </c>
       <c r="M5" t="n">
-        <v>804.4361768659307</v>
+        <v>1186.183864569826</v>
       </c>
       <c r="N5" t="n">
-        <v>1226.740510259391</v>
+        <v>1695.294330312065</v>
       </c>
       <c r="O5" t="n">
-        <v>1226.740510259391</v>
+        <v>1695.294330312065</v>
       </c>
       <c r="P5" t="n">
-        <v>1735.85097600163</v>
+        <v>1695.294330312065</v>
       </c>
       <c r="Q5" t="n">
-        <v>2057.011982796922</v>
+        <v>2016.455337107357</v>
       </c>
       <c r="R5" t="n">
         <v>2057.011982796922</v>
@@ -4600,19 +4600,19 @@
         <v>2057.011982796922</v>
       </c>
       <c r="U5" t="n">
-        <v>1799.951491056432</v>
+        <v>2057.011982796922</v>
       </c>
       <c r="V5" t="n">
-        <v>1799.951491056432</v>
+        <v>2057.011982796922</v>
       </c>
       <c r="W5" t="n">
-        <v>1416.1911901916</v>
+        <v>2057.011982796922</v>
       </c>
       <c r="X5" t="n">
-        <v>1015.547792360553</v>
+        <v>2057.011982796922</v>
       </c>
       <c r="Y5" t="n">
-        <v>1015.547792360553</v>
+        <v>2057.011982796922</v>
       </c>
     </row>
     <row r="6">
@@ -4628,37 +4628,37 @@
         <v>555.3585575819016</v>
       </c>
       <c r="D6" t="n">
-        <v>469.078852510811</v>
+        <v>438.461399801294</v>
       </c>
       <c r="E6" t="n">
-        <v>348.5860365031389</v>
+        <v>317.968583793622</v>
       </c>
       <c r="F6" t="n">
-        <v>239.6261566856435</v>
+        <v>209.0087039761266</v>
       </c>
       <c r="G6" t="n">
-        <v>132.6360439999822</v>
+        <v>102.0185912904653</v>
       </c>
       <c r="H6" t="n">
-        <v>61.88883103569826</v>
+        <v>41.14023965593843</v>
       </c>
       <c r="I6" t="n">
         <v>41.14023965593843</v>
       </c>
       <c r="J6" t="n">
-        <v>41.14023965593843</v>
+        <v>233.9530972185717</v>
       </c>
       <c r="K6" t="n">
-        <v>496.9464959212372</v>
+        <v>233.9530972185717</v>
       </c>
       <c r="L6" t="n">
-        <v>1006.056961663475</v>
+        <v>233.9530972185717</v>
       </c>
       <c r="M6" t="n">
-        <v>1198.0570523707</v>
+        <v>233.9530972185717</v>
       </c>
       <c r="N6" t="n">
-        <v>1198.0570523707</v>
+        <v>688.9465866284618</v>
       </c>
       <c r="O6" t="n">
         <v>1198.0570523707</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>554.5041659736329</v>
+        <v>980.8666347625317</v>
       </c>
       <c r="C7" t="n">
-        <v>554.5041659736329</v>
+        <v>809.7732623242482</v>
       </c>
       <c r="D7" t="n">
-        <v>395.0095212965429</v>
+        <v>650.2786176471582</v>
       </c>
       <c r="E7" t="n">
-        <v>234.0987061648624</v>
+        <v>489.3678025154776</v>
       </c>
       <c r="F7" t="n">
-        <v>234.0987061648624</v>
+        <v>324.7366766260689</v>
       </c>
       <c r="G7" t="n">
-        <v>66.8483150904058</v>
+        <v>157.4862855516123</v>
       </c>
       <c r="H7" t="n">
-        <v>66.8483150904058</v>
+        <v>157.4862855516123</v>
       </c>
       <c r="I7" t="n">
         <v>41.14023965593843</v>
@@ -4761,16 +4761,16 @@
         <v>1570.539136276788</v>
       </c>
       <c r="V7" t="n">
-        <v>1296.65339121631</v>
+        <v>1570.539136276788</v>
       </c>
       <c r="W7" t="n">
-        <v>1017.583726725185</v>
+        <v>1570.539136276788</v>
       </c>
       <c r="X7" t="n">
-        <v>779.2398645848682</v>
+        <v>1393.302039767811</v>
       </c>
       <c r="Y7" t="n">
-        <v>554.5041659736329</v>
+        <v>1168.566341156576</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1291.746863805383</v>
+        <v>1511.509727926533</v>
       </c>
       <c r="C8" t="n">
-        <v>881.6222731186534</v>
+        <v>1101.385137239803</v>
       </c>
       <c r="D8" t="n">
-        <v>477.1583432117139</v>
+        <v>696.9212073328636</v>
       </c>
       <c r="E8" t="n">
-        <v>466.8585317690147</v>
+        <v>282.5809918497603</v>
       </c>
       <c r="F8" t="n">
-        <v>449.8685237631063</v>
+        <v>45.82811972270218</v>
       </c>
       <c r="G8" t="n">
         <v>41.14023965593843</v>
@@ -4804,16 +4804,16 @@
         <v>41.14023965593843</v>
       </c>
       <c r="J8" t="n">
+        <v>41.14023965593843</v>
+      </c>
+      <c r="K8" t="n">
+        <v>41.14023965593843</v>
+      </c>
+      <c r="L8" t="n">
+        <v>41.14023965593843</v>
+      </c>
+      <c r="M8" t="n">
         <v>167.9629330853502</v>
-      </c>
-      <c r="K8" t="n">
-        <v>677.0733988275883</v>
-      </c>
-      <c r="L8" t="n">
-        <v>677.0733988275883</v>
-      </c>
-      <c r="M8" t="n">
-        <v>677.0733988275883</v>
       </c>
       <c r="N8" t="n">
         <v>677.0733988275883</v>
@@ -4834,22 +4834,22 @@
         <v>1921.730907591022</v>
       </c>
       <c r="T8" t="n">
-        <v>1699.524423537881</v>
+        <v>1921.730907591022</v>
       </c>
       <c r="U8" t="n">
-        <v>1699.524423537881</v>
+        <v>1921.730907591022</v>
       </c>
       <c r="V8" t="n">
-        <v>1349.686868874362</v>
+        <v>1921.730907591022</v>
       </c>
       <c r="W8" t="n">
-        <v>1349.686868874362</v>
+        <v>1921.730907591022</v>
       </c>
       <c r="X8" t="n">
-        <v>1349.686868874362</v>
+        <v>1921.730907591022</v>
       </c>
       <c r="Y8" t="n">
-        <v>1349.686868874362</v>
+        <v>1921.730907591022</v>
       </c>
     </row>
     <row r="9">
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>689.3536288329559</v>
+        <v>719.9710815424728</v>
       </c>
       <c r="C9" t="n">
-        <v>555.3585575819016</v>
+        <v>585.9760102914186</v>
       </c>
       <c r="D9" t="n">
         <v>469.078852510811</v>
@@ -4883,25 +4883,25 @@
         <v>41.14023965593843</v>
       </c>
       <c r="J9" t="n">
-        <v>41.14023965593843</v>
+        <v>233.9530972185717</v>
       </c>
       <c r="K9" t="n">
-        <v>41.14023965593843</v>
+        <v>689.7593534838704</v>
       </c>
       <c r="L9" t="n">
-        <v>550.2507053981765</v>
+        <v>1168.49753300807</v>
       </c>
       <c r="M9" t="n">
-        <v>550.2507053981765</v>
+        <v>1168.49753300807</v>
       </c>
       <c r="N9" t="n">
-        <v>1009.231531949815</v>
+        <v>1168.49753300807</v>
       </c>
       <c r="O9" t="n">
-        <v>1518.341997692053</v>
+        <v>1168.49753300807</v>
       </c>
       <c r="P9" t="n">
-        <v>2027.452463434292</v>
+        <v>1677.607998750308</v>
       </c>
       <c r="Q9" t="n">
         <v>2027.452463434292</v>
@@ -4910,25 +4910,25 @@
         <v>2057.011982796922</v>
       </c>
       <c r="S9" t="n">
-        <v>1949.02197291123</v>
+        <v>1979.639425620747</v>
       </c>
       <c r="T9" t="n">
-        <v>1789.680109098239</v>
+        <v>1820.297561807756</v>
       </c>
       <c r="U9" t="n">
-        <v>1592.329298236457</v>
+        <v>1622.946750945974</v>
       </c>
       <c r="V9" t="n">
-        <v>1378.617771229491</v>
+        <v>1409.235223939008</v>
       </c>
       <c r="W9" t="n">
-        <v>1165.38460296582</v>
+        <v>1196.002055675337</v>
       </c>
       <c r="X9" t="n">
-        <v>989.0586211047125</v>
+        <v>1019.676073814229</v>
       </c>
       <c r="Y9" t="n">
-        <v>829.6566614685426</v>
+        <v>860.2741141780594</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>376.8647379836307</v>
+        <v>1130.474089957075</v>
       </c>
       <c r="C10" t="n">
-        <v>205.7713655453472</v>
+        <v>959.3807175187915</v>
       </c>
       <c r="D10" t="n">
-        <v>205.7713655453472</v>
+        <v>799.8860728417014</v>
       </c>
       <c r="E10" t="n">
-        <v>205.7713655453472</v>
+        <v>638.975257710021</v>
       </c>
       <c r="F10" t="n">
-        <v>41.14023965593843</v>
+        <v>474.3441318206122</v>
       </c>
       <c r="G10" t="n">
-        <v>41.14023965593843</v>
+        <v>307.0937407461556</v>
       </c>
       <c r="H10" t="n">
-        <v>41.14023965593843</v>
+        <v>157.4862855516123</v>
       </c>
       <c r="I10" t="n">
         <v>41.14023965593843</v>
@@ -4986,28 +4986,28 @@
         <v>1570.539136276788</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.266417952188</v>
+        <v>1570.539136276788</v>
       </c>
       <c r="S10" t="n">
-        <v>1298.874649832098</v>
+        <v>1570.539136276788</v>
       </c>
       <c r="T10" t="n">
-        <v>1072.098290442786</v>
+        <v>1570.539136276788</v>
       </c>
       <c r="U10" t="n">
-        <v>789.3001429889104</v>
+        <v>1570.539136276788</v>
       </c>
       <c r="V10" t="n">
-        <v>789.3001429889104</v>
+        <v>1570.539136276788</v>
       </c>
       <c r="W10" t="n">
-        <v>789.3001429889104</v>
+        <v>1570.539136276788</v>
       </c>
       <c r="X10" t="n">
-        <v>789.3001429889104</v>
+        <v>1542.909494962355</v>
       </c>
       <c r="Y10" t="n">
-        <v>564.564444377675</v>
+        <v>1318.173796351119</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1586.654155002249</v>
+        <v>160.8270843865884</v>
       </c>
       <c r="C11" t="n">
-        <v>1586.654155002249</v>
+        <v>160.8270843865884</v>
       </c>
       <c r="D11" t="n">
-        <v>1586.654155002249</v>
+        <v>160.8270843865884</v>
       </c>
       <c r="E11" t="n">
-        <v>1172.313939519146</v>
+        <v>160.8270843865884</v>
       </c>
       <c r="F11" t="n">
-        <v>751.2835274728335</v>
+        <v>160.8270843865884</v>
       </c>
       <c r="G11" t="n">
-        <v>343.3997663201907</v>
+        <v>160.8270843865884</v>
       </c>
       <c r="H11" t="n">
         <v>41.14023965593843</v>
@@ -5041,25 +5041,25 @@
         <v>41.14023965593843</v>
       </c>
       <c r="J11" t="n">
-        <v>41.14023965593843</v>
+        <v>365.5771524160924</v>
       </c>
       <c r="K11" t="n">
-        <v>550.2507053981765</v>
+        <v>852.8221894463948</v>
       </c>
       <c r="L11" t="n">
-        <v>586.340103544863</v>
+        <v>888.9115875930813</v>
       </c>
       <c r="M11" t="n">
-        <v>639.3226348304845</v>
+        <v>941.8941188787028</v>
       </c>
       <c r="N11" t="n">
-        <v>695.0310712572657</v>
+        <v>997.602555305484</v>
       </c>
       <c r="O11" t="n">
-        <v>1204.141536999504</v>
+        <v>1044.805671312803</v>
       </c>
       <c r="P11" t="n">
-        <v>1713.252002741742</v>
+        <v>1553.916137055041</v>
       </c>
       <c r="Q11" t="n">
         <v>1964.461262389512</v>
@@ -5068,25 +5068,25 @@
         <v>2057.011982796922</v>
       </c>
       <c r="S11" t="n">
-        <v>2057.011982796922</v>
+        <v>1940.975474417262</v>
       </c>
       <c r="T11" t="n">
-        <v>1838.502397977214</v>
+        <v>1722.465889597554</v>
       </c>
       <c r="U11" t="n">
-        <v>1838.502397977214</v>
+        <v>1722.465889597554</v>
       </c>
       <c r="V11" t="n">
-        <v>1586.654155002249</v>
+        <v>1372.628334934035</v>
       </c>
       <c r="W11" t="n">
-        <v>1586.654155002249</v>
+        <v>1372.628334934035</v>
       </c>
       <c r="X11" t="n">
-        <v>1586.654155002249</v>
+        <v>971.9849371029877</v>
       </c>
       <c r="Y11" t="n">
-        <v>1586.654155002249</v>
+        <v>571.0482640510778</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>699.5977619843242</v>
+        <v>699.5977619843243</v>
       </c>
       <c r="C12" t="n">
-        <v>565.6026907332699</v>
+        <v>565.60269073327</v>
       </c>
       <c r="D12" t="n">
         <v>448.7055329526625</v>
@@ -5111,7 +5111,7 @@
         <v>219.252837127495</v>
       </c>
       <c r="G12" t="n">
-        <v>112.7145840584931</v>
+        <v>112.714584058493</v>
       </c>
       <c r="H12" t="n">
         <v>46.33138370773464</v>
@@ -5123,28 +5123,28 @@
         <v>275.7943743817717</v>
       </c>
       <c r="K12" t="n">
-        <v>784.9048401240098</v>
+        <v>292.0402564774854</v>
       </c>
       <c r="L12" t="n">
-        <v>895.2537604721542</v>
+        <v>801.1507222197235</v>
       </c>
       <c r="M12" t="n">
-        <v>950.4776715286932</v>
+        <v>856.3746332762626</v>
       </c>
       <c r="N12" t="n">
-        <v>1459.588137270931</v>
+        <v>918.8956581254699</v>
       </c>
       <c r="O12" t="n">
-        <v>1968.69860301317</v>
+        <v>1428.006123867708</v>
       </c>
       <c r="P12" t="n">
-        <v>1999.549853907369</v>
+        <v>1937.116589609946</v>
       </c>
       <c r="Q12" t="n">
         <v>1999.955823560457</v>
       </c>
       <c r="R12" t="n">
-        <v>2057.011982796922</v>
+        <v>2057.011982796921</v>
       </c>
       <c r="S12" t="n">
         <v>1957.415067106635</v>
@@ -5162,10 +5162,10 @@
         <v>1175.628736117188</v>
       </c>
       <c r="X12" t="n">
-        <v>999.3027542560808</v>
+        <v>999.3027542560809</v>
       </c>
       <c r="Y12" t="n">
-        <v>839.9007946199108</v>
+        <v>839.9007946199109</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>464.7677462214479</v>
+        <v>784.5454546390046</v>
       </c>
       <c r="C13" t="n">
-        <v>293.6743737831644</v>
+        <v>613.4520822007211</v>
       </c>
       <c r="D13" t="n">
-        <v>293.6743737831644</v>
+        <v>453.9574375236311</v>
       </c>
       <c r="E13" t="n">
-        <v>293.6743737831644</v>
+        <v>293.0466223919506</v>
       </c>
       <c r="F13" t="n">
-        <v>129.0432478937556</v>
+        <v>293.0466223919506</v>
       </c>
       <c r="G13" t="n">
-        <v>41.14023965593843</v>
+        <v>126.1750552411529</v>
       </c>
       <c r="H13" t="n">
         <v>41.14023965593843</v>
@@ -5223,28 +5223,28 @@
         <v>1938.617908753048</v>
       </c>
       <c r="R13" t="n">
-        <v>1870.378491577691</v>
+        <v>1938.617908753048</v>
       </c>
       <c r="S13" t="n">
-        <v>1690.588591290821</v>
+        <v>1758.828008466177</v>
       </c>
       <c r="T13" t="n">
-        <v>1452.658463577702</v>
+        <v>1758.828008466177</v>
       </c>
       <c r="U13" t="n">
-        <v>1169.880979246934</v>
+        <v>1476.05052413541</v>
       </c>
       <c r="V13" t="n">
-        <v>1169.880979246934</v>
+        <v>1476.05052413541</v>
       </c>
       <c r="W13" t="n">
-        <v>890.8113147558088</v>
+        <v>1196.980859644284</v>
       </c>
       <c r="X13" t="n">
-        <v>652.4674526154922</v>
+        <v>1196.980859644284</v>
       </c>
       <c r="Y13" t="n">
-        <v>652.4674526154922</v>
+        <v>972.2451610330489</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>654.6083821978898</v>
+        <v>1677.952736885354</v>
       </c>
       <c r="C14" t="n">
-        <v>654.6083821978898</v>
+        <v>1267.828146198624</v>
       </c>
       <c r="D14" t="n">
-        <v>397.1930577987904</v>
+        <v>863.3642162916844</v>
       </c>
       <c r="E14" t="n">
-        <v>397.1930577987904</v>
+        <v>449.0240008085812</v>
       </c>
       <c r="F14" t="n">
-        <v>397.1930577987904</v>
+        <v>449.0240008085812</v>
       </c>
       <c r="G14" t="n">
-        <v>397.1930577987904</v>
+        <v>41.14023965593843</v>
       </c>
       <c r="H14" t="n">
-        <v>94.93353113453807</v>
+        <v>41.14023965593843</v>
       </c>
       <c r="I14" t="n">
         <v>41.14023965593843</v>
@@ -5284,46 +5284,46 @@
         <v>874.6876181583305</v>
       </c>
       <c r="L14" t="n">
-        <v>915.5802567970186</v>
+        <v>981.4623080004912</v>
       </c>
       <c r="M14" t="n">
-        <v>1424.690722539257</v>
+        <v>1034.444839286113</v>
       </c>
       <c r="N14" t="n">
-        <v>1480.399158966038</v>
+        <v>1090.153275712894</v>
       </c>
       <c r="O14" t="n">
-        <v>1527.602274973357</v>
+        <v>1137.356391720213</v>
       </c>
       <c r="P14" t="n">
-        <v>1553.916137055041</v>
+        <v>1646.466857462451</v>
       </c>
       <c r="Q14" t="n">
-        <v>1964.461262389512</v>
+        <v>2057.011982796922</v>
       </c>
       <c r="R14" t="n">
         <v>2057.011982796922</v>
       </c>
       <c r="S14" t="n">
-        <v>1940.975474417262</v>
+        <v>2057.011982796922</v>
       </c>
       <c r="T14" t="n">
-        <v>1722.465889597554</v>
+        <v>2057.011982796922</v>
       </c>
       <c r="U14" t="n">
-        <v>1465.472959693427</v>
+        <v>2057.011982796922</v>
       </c>
       <c r="V14" t="n">
-        <v>1465.472959693427</v>
+        <v>2057.011982796922</v>
       </c>
       <c r="W14" t="n">
-        <v>1465.472959693427</v>
+        <v>1677.952736885354</v>
       </c>
       <c r="X14" t="n">
-        <v>1064.829561862379</v>
+        <v>1677.952736885354</v>
       </c>
       <c r="Y14" t="n">
-        <v>1064.829561862379</v>
+        <v>1677.952736885354</v>
       </c>
     </row>
     <row r="15">
@@ -5333,55 +5333,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>699.5977619843246</v>
+        <v>699.5977619843243</v>
       </c>
       <c r="C15" t="n">
-        <v>565.6026907332703</v>
+        <v>565.60269073327</v>
       </c>
       <c r="D15" t="n">
-        <v>448.7055329526627</v>
+        <v>448.7055329526625</v>
       </c>
       <c r="E15" t="n">
-        <v>328.2127169449907</v>
+        <v>328.2127169449905</v>
       </c>
       <c r="F15" t="n">
-        <v>219.2528371274953</v>
+        <v>219.252837127495</v>
       </c>
       <c r="G15" t="n">
-        <v>112.7145840584933</v>
+        <v>112.714584058493</v>
       </c>
       <c r="H15" t="n">
-        <v>46.33138370773491</v>
+        <v>46.33138370773464</v>
       </c>
       <c r="I15" t="n">
-        <v>41.14023965593871</v>
+        <v>41.14023965593843</v>
       </c>
       <c r="J15" t="n">
-        <v>41.14023965593843</v>
+        <v>275.7943743817717</v>
       </c>
       <c r="K15" t="n">
-        <v>550.2507053981765</v>
+        <v>784.9048401240098</v>
       </c>
       <c r="L15" t="n">
-        <v>590.8559279100753</v>
+        <v>918.5287890477048</v>
       </c>
       <c r="M15" t="n">
-        <v>918.8078975736858</v>
+        <v>973.7527001042438</v>
       </c>
       <c r="N15" t="n">
-        <v>981.3289224228931</v>
+        <v>1036.273724953451</v>
       </c>
       <c r="O15" t="n">
-        <v>1490.439388165131</v>
+        <v>1084.469231161357</v>
       </c>
       <c r="P15" t="n">
-        <v>1999.549853907369</v>
+        <v>1593.579696903595</v>
       </c>
       <c r="Q15" t="n">
         <v>1999.955823560457</v>
       </c>
       <c r="R15" t="n">
-        <v>2057.011982796922</v>
+        <v>2057.011982796921</v>
       </c>
       <c r="S15" t="n">
         <v>1957.415067106635</v>
@@ -5393,16 +5393,16 @@
         <v>1602.573431387826</v>
       </c>
       <c r="V15" t="n">
-        <v>1388.86190438086</v>
+        <v>1388.861904380859</v>
       </c>
       <c r="W15" t="n">
-        <v>1175.628736117189</v>
+        <v>1175.628736117188</v>
       </c>
       <c r="X15" t="n">
-        <v>999.3027542560812</v>
+        <v>999.3027542560809</v>
       </c>
       <c r="Y15" t="n">
-        <v>839.9007946199113</v>
+        <v>839.9007946199109</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>616.9255696953308</v>
+        <v>537.7755531153111</v>
       </c>
       <c r="C16" t="n">
-        <v>445.8321972570473</v>
+        <v>366.6821806770277</v>
       </c>
       <c r="D16" t="n">
-        <v>286.3375525799573</v>
+        <v>366.6821806770277</v>
       </c>
       <c r="E16" t="n">
-        <v>286.3375525799573</v>
+        <v>205.7713655453472</v>
       </c>
       <c r="F16" t="n">
-        <v>286.3375525799573</v>
+        <v>41.14023965593843</v>
       </c>
       <c r="G16" t="n">
-        <v>187.3796057837692</v>
+        <v>41.14023965593843</v>
       </c>
       <c r="H16" t="n">
         <v>41.14023965593843</v>
@@ -5463,25 +5463,25 @@
         <v>1870.378491577691</v>
       </c>
       <c r="S16" t="n">
-        <v>1690.588591290821</v>
+        <v>1741.510229812511</v>
       </c>
       <c r="T16" t="n">
-        <v>1452.658463577702</v>
+        <v>1741.510229812511</v>
       </c>
       <c r="U16" t="n">
-        <v>1169.880979246934</v>
+        <v>1741.510229812511</v>
       </c>
       <c r="V16" t="n">
-        <v>895.9952341864564</v>
+        <v>1467.624484752033</v>
       </c>
       <c r="W16" t="n">
-        <v>616.9255696953308</v>
+        <v>1188.554820260907</v>
       </c>
       <c r="X16" t="n">
-        <v>616.9255696953308</v>
+        <v>950.2109581205908</v>
       </c>
       <c r="Y16" t="n">
-        <v>616.9255696953308</v>
+        <v>725.4752595093555</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1197.749167208255</v>
+        <v>1646.790803132432</v>
       </c>
       <c r="C17" t="n">
-        <v>1197.749167208255</v>
+        <v>1236.666212445702</v>
       </c>
       <c r="D17" t="n">
-        <v>793.2852373013154</v>
+        <v>832.2022825387626</v>
       </c>
       <c r="E17" t="n">
-        <v>764.4301783665032</v>
+        <v>832.2022825387626</v>
       </c>
       <c r="F17" t="n">
-        <v>343.3997663201907</v>
+        <v>502.8172922871809</v>
       </c>
       <c r="G17" t="n">
-        <v>343.3997663201907</v>
+        <v>94.93353113453807</v>
       </c>
       <c r="H17" t="n">
-        <v>41.14023965593844</v>
+        <v>94.93353113453807</v>
       </c>
       <c r="I17" t="n">
-        <v>41.14023965593844</v>
+        <v>41.14023965593843</v>
       </c>
       <c r="J17" t="n">
-        <v>41.14023965593844</v>
+        <v>365.5771524160924</v>
       </c>
       <c r="K17" t="n">
-        <v>58.18391356926429</v>
+        <v>874.6876181583305</v>
       </c>
       <c r="L17" t="n">
-        <v>554.728947888972</v>
+        <v>910.777016305017</v>
       </c>
       <c r="M17" t="n">
-        <v>1063.83941363121</v>
+        <v>963.7595475906385</v>
       </c>
       <c r="N17" t="n">
-        <v>1572.949879373448</v>
+        <v>1019.46798401742</v>
       </c>
       <c r="O17" t="n">
-        <v>1620.152995380767</v>
+        <v>1528.578449759658</v>
       </c>
       <c r="P17" t="n">
-        <v>1646.466857462451</v>
+        <v>1554.892311841342</v>
       </c>
       <c r="Q17" t="n">
-        <v>2057.011982796922</v>
+        <v>1964.461262389512</v>
       </c>
       <c r="R17" t="n">
         <v>2057.011982796922</v>
@@ -5545,22 +5545,22 @@
         <v>2057.011982796922</v>
       </c>
       <c r="T17" t="n">
-        <v>1838.502397977214</v>
+        <v>2057.011982796922</v>
       </c>
       <c r="U17" t="n">
-        <v>1581.509468073086</v>
+        <v>2057.011982796922</v>
       </c>
       <c r="V17" t="n">
-        <v>1581.509468073086</v>
+        <v>2057.011982796922</v>
       </c>
       <c r="W17" t="n">
-        <v>1197.749167208255</v>
+        <v>2057.011982796922</v>
       </c>
       <c r="X17" t="n">
-        <v>1197.749167208255</v>
+        <v>2057.011982796922</v>
       </c>
       <c r="Y17" t="n">
-        <v>1197.749167208255</v>
+        <v>2057.011982796922</v>
       </c>
     </row>
     <row r="18">
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>699.5977619843243</v>
+        <v>699.5977619843242</v>
       </c>
       <c r="C18" t="n">
-        <v>565.60269073327</v>
+        <v>565.6026907332699</v>
       </c>
       <c r="D18" t="n">
         <v>448.7055329526625</v>
@@ -5585,40 +5585,40 @@
         <v>219.252837127495</v>
       </c>
       <c r="G18" t="n">
-        <v>112.714584058493</v>
+        <v>112.7145840584931</v>
       </c>
       <c r="H18" t="n">
         <v>46.33138370773464</v>
       </c>
       <c r="I18" t="n">
-        <v>41.14023965593844</v>
+        <v>41.14023965593843</v>
       </c>
       <c r="J18" t="n">
-        <v>41.14023965593844</v>
+        <v>275.7943743817717</v>
       </c>
       <c r="K18" t="n">
-        <v>550.2507053981766</v>
+        <v>784.9048401240098</v>
       </c>
       <c r="L18" t="n">
-        <v>590.8559279100754</v>
+        <v>918.5287890477052</v>
       </c>
       <c r="M18" t="n">
-        <v>1099.966393652314</v>
+        <v>973.7527001042442</v>
       </c>
       <c r="N18" t="n">
-        <v>1609.076859394552</v>
+        <v>1036.273724953452</v>
       </c>
       <c r="O18" t="n">
-        <v>1657.272365602458</v>
+        <v>1084.469231161358</v>
       </c>
       <c r="P18" t="n">
-        <v>1688.123616496658</v>
+        <v>1593.579696903596</v>
       </c>
       <c r="Q18" t="n">
-        <v>2057.011982796921</v>
+        <v>1999.955823560457</v>
       </c>
       <c r="R18" t="n">
-        <v>2057.011982796921</v>
+        <v>2057.011982796922</v>
       </c>
       <c r="S18" t="n">
         <v>1957.415067106635</v>
@@ -5636,10 +5636,10 @@
         <v>1175.628736117188</v>
       </c>
       <c r="X18" t="n">
-        <v>999.3027542560809</v>
+        <v>999.3027542560808</v>
       </c>
       <c r="Y18" t="n">
-        <v>839.9007946199109</v>
+        <v>839.9007946199108</v>
       </c>
     </row>
     <row r="19">
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41.14023965593844</v>
+        <v>963.8209169346153</v>
       </c>
       <c r="C19" t="n">
-        <v>41.14023965593844</v>
+        <v>792.7275444963318</v>
       </c>
       <c r="D19" t="n">
-        <v>41.14023965593844</v>
+        <v>633.2328998192418</v>
       </c>
       <c r="E19" t="n">
-        <v>41.14023965593844</v>
+        <v>472.3220846875612</v>
       </c>
       <c r="F19" t="n">
-        <v>41.14023965593844</v>
+        <v>307.6909587981525</v>
       </c>
       <c r="G19" t="n">
-        <v>41.14023965593844</v>
+        <v>292.333383138865</v>
       </c>
       <c r="H19" t="n">
-        <v>41.14023965593844</v>
+        <v>146.0940170110343</v>
       </c>
       <c r="I19" t="n">
-        <v>41.14023965593844</v>
+        <v>41.14023965593843</v>
       </c>
       <c r="J19" t="n">
-        <v>81.47266172091854</v>
+        <v>81.47266172091852</v>
       </c>
       <c r="K19" t="n">
         <v>279.1615938654087</v>
@@ -5697,28 +5697,28 @@
         <v>1938.617908753048</v>
       </c>
       <c r="R19" t="n">
-        <v>1870.378491577691</v>
+        <v>1938.617908753048</v>
       </c>
       <c r="S19" t="n">
-        <v>1690.588591290821</v>
+        <v>1758.828008466177</v>
       </c>
       <c r="T19" t="n">
-        <v>1452.658463577702</v>
+        <v>1758.828008466177</v>
       </c>
       <c r="U19" t="n">
-        <v>1169.880979246934</v>
+        <v>1476.05052413541</v>
       </c>
       <c r="V19" t="n">
-        <v>895.9952341864564</v>
+        <v>1202.164779074932</v>
       </c>
       <c r="W19" t="n">
-        <v>616.9255696953308</v>
+        <v>1202.164779074932</v>
       </c>
       <c r="X19" t="n">
-        <v>378.5817075550141</v>
+        <v>963.8209169346153</v>
       </c>
       <c r="Y19" t="n">
-        <v>228.8399460499828</v>
+        <v>963.8209169346153</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>806.7342210578645</v>
+        <v>872.2952423889808</v>
       </c>
       <c r="C20" t="n">
-        <v>396.6096303711346</v>
+        <v>462.1706517022509</v>
       </c>
       <c r="D20" t="n">
-        <v>396.6096303711346</v>
+        <v>462.1706517022509</v>
       </c>
       <c r="E20" t="n">
-        <v>396.6096303711346</v>
+        <v>462.1706517022509</v>
       </c>
       <c r="F20" t="n">
-        <v>41.14023965593844</v>
+        <v>41.14023965593843</v>
       </c>
       <c r="G20" t="n">
-        <v>41.14023965593844</v>
+        <v>41.14023965593843</v>
       </c>
       <c r="H20" t="n">
-        <v>41.14023965593844</v>
+        <v>41.14023965593843</v>
       </c>
       <c r="I20" t="n">
-        <v>41.14023965593844</v>
+        <v>41.14023965593843</v>
       </c>
       <c r="J20" t="n">
-        <v>41.14023965593844</v>
+        <v>365.5771524160924</v>
       </c>
       <c r="K20" t="n">
-        <v>58.18391356926429</v>
+        <v>874.6876181583305</v>
       </c>
       <c r="L20" t="n">
-        <v>567.2943793115026</v>
+        <v>1383.798083900569</v>
       </c>
       <c r="M20" t="n">
-        <v>620.276910597124</v>
+        <v>1517.241442946667</v>
       </c>
       <c r="N20" t="n">
-        <v>675.9853470239052</v>
+        <v>1572.949879373448</v>
       </c>
       <c r="O20" t="n">
-        <v>1044.805671312803</v>
+        <v>1620.152995380767</v>
       </c>
       <c r="P20" t="n">
-        <v>1553.916137055041</v>
+        <v>1646.466857462451</v>
       </c>
       <c r="Q20" t="n">
-        <v>1964.461262389512</v>
+        <v>2057.011982796922</v>
       </c>
       <c r="R20" t="n">
         <v>2057.011982796922</v>
       </c>
       <c r="S20" t="n">
-        <v>1940.975474417263</v>
+        <v>2057.011982796922</v>
       </c>
       <c r="T20" t="n">
-        <v>1940.975474417263</v>
+        <v>2057.011982796922</v>
       </c>
       <c r="U20" t="n">
-        <v>1940.975474417263</v>
+        <v>2057.011982796922</v>
       </c>
       <c r="V20" t="n">
-        <v>1591.137919753743</v>
+        <v>2057.011982796922</v>
       </c>
       <c r="W20" t="n">
-        <v>1207.377618888912</v>
+        <v>2057.011982796922</v>
       </c>
       <c r="X20" t="n">
-        <v>806.7342210578645</v>
+        <v>1683.45309510538</v>
       </c>
       <c r="Y20" t="n">
-        <v>806.7342210578645</v>
+        <v>1282.51642205347</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>46.33138370773464</v>
       </c>
       <c r="I21" t="n">
-        <v>41.14023965593844</v>
+        <v>41.14023965593843</v>
       </c>
       <c r="J21" t="n">
-        <v>41.14023965593844</v>
+        <v>275.7943743817717</v>
       </c>
       <c r="K21" t="n">
-        <v>57.38612175165215</v>
+        <v>292.0402564774854</v>
       </c>
       <c r="L21" t="n">
-        <v>566.4965874938904</v>
+        <v>801.1507222197235</v>
       </c>
       <c r="M21" t="n">
-        <v>621.7204985504294</v>
+        <v>973.7527001042438</v>
       </c>
       <c r="N21" t="n">
-        <v>1130.830964292668</v>
+        <v>1036.273724953451</v>
       </c>
       <c r="O21" t="n">
-        <v>1562.728446009395</v>
+        <v>1084.469231161357</v>
       </c>
       <c r="P21" t="n">
         <v>1593.579696903595</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>41.14023965593844</v>
+        <v>438.9113186231971</v>
       </c>
       <c r="C22" t="n">
-        <v>41.14023965593844</v>
+        <v>267.8179461849136</v>
       </c>
       <c r="D22" t="n">
-        <v>41.14023965593844</v>
+        <v>267.8179461849136</v>
       </c>
       <c r="E22" t="n">
-        <v>41.14023965593844</v>
+        <v>267.8179461849136</v>
       </c>
       <c r="F22" t="n">
-        <v>41.14023965593844</v>
+        <v>267.8179461849136</v>
       </c>
       <c r="G22" t="n">
-        <v>41.14023965593844</v>
+        <v>100.9463790341159</v>
       </c>
       <c r="H22" t="n">
-        <v>41.14023965593844</v>
+        <v>41.14023965593843</v>
       </c>
       <c r="I22" t="n">
-        <v>41.14023965593844</v>
+        <v>41.14023965593843</v>
       </c>
       <c r="J22" t="n">
-        <v>81.47266172091854</v>
+        <v>81.47266172091852</v>
       </c>
       <c r="K22" t="n">
         <v>279.1615938654087</v>
@@ -5934,28 +5934,28 @@
         <v>1938.617908753048</v>
       </c>
       <c r="R22" t="n">
-        <v>1870.378491577691</v>
+        <v>1938.617908753048</v>
       </c>
       <c r="S22" t="n">
-        <v>1690.588591290821</v>
+        <v>1938.617908753048</v>
       </c>
       <c r="T22" t="n">
-        <v>1452.658463577702</v>
+        <v>1700.687781039929</v>
       </c>
       <c r="U22" t="n">
-        <v>1169.880979246934</v>
+        <v>1417.910296709162</v>
       </c>
       <c r="V22" t="n">
-        <v>895.9952341864564</v>
+        <v>1144.024551648684</v>
       </c>
       <c r="W22" t="n">
-        <v>616.9255696953308</v>
+        <v>864.954887157558</v>
       </c>
       <c r="X22" t="n">
-        <v>378.5817075550141</v>
+        <v>626.6110250172414</v>
       </c>
       <c r="Y22" t="n">
-        <v>228.8399460499828</v>
+        <v>626.6110250172414</v>
       </c>
     </row>
     <row r="23">
@@ -5992,19 +5992,19 @@
         <v>425.4743384050084</v>
       </c>
       <c r="K23" t="n">
-        <v>1068.922539203859</v>
+        <v>451.7577491125422</v>
       </c>
       <c r="L23" t="n">
-        <v>1912.133881245</v>
+        <v>1294.969091153683</v>
       </c>
       <c r="M23" t="n">
-        <v>2833.79232573485</v>
+        <v>2216.627535643534</v>
       </c>
       <c r="N23" t="n">
-        <v>3734.664946649303</v>
+        <v>3117.500156557986</v>
       </c>
       <c r="O23" t="n">
-        <v>4517.756796943251</v>
+        <v>3900.592006851935</v>
       </c>
       <c r="P23" t="n">
         <v>4548.775436500846</v>
@@ -6068,28 +6068,28 @@
         <v>101.0374256448545</v>
       </c>
       <c r="J24" t="n">
-        <v>101.0374256448545</v>
+        <v>335.6915603706878</v>
       </c>
       <c r="K24" t="n">
-        <v>117.2833077405682</v>
+        <v>351.9374424664015</v>
       </c>
       <c r="L24" t="n">
-        <v>874.5300807444959</v>
+        <v>392.5426649783004</v>
       </c>
       <c r="M24" t="n">
-        <v>929.7539918010349</v>
+        <v>447.7665760348394</v>
       </c>
       <c r="N24" t="n">
-        <v>1918.594568221672</v>
+        <v>1436.607152455477</v>
       </c>
       <c r="O24" t="n">
-        <v>1966.790074429578</v>
+        <v>1484.802658663383</v>
       </c>
       <c r="P24" t="n">
-        <v>1997.641325323778</v>
+        <v>1710.533042128975</v>
       </c>
       <c r="Q24" t="n">
-        <v>2059.853009549373</v>
+        <v>2116.909168785837</v>
       </c>
       <c r="R24" t="n">
         <v>2116.909168785837</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>598.4970099110258</v>
+        <v>603.6334911233445</v>
       </c>
       <c r="C25" t="n">
-        <v>427.4036374727422</v>
+        <v>432.540118685061</v>
       </c>
       <c r="D25" t="n">
-        <v>267.9089927956522</v>
+        <v>432.540118685061</v>
       </c>
       <c r="E25" t="n">
-        <v>267.9089927956522</v>
+        <v>432.540118685061</v>
       </c>
       <c r="F25" t="n">
         <v>267.9089927956522</v>
@@ -6171,28 +6171,28 @@
         <v>1998.515094741964</v>
       </c>
       <c r="R25" t="n">
-        <v>1930.275677566608</v>
+        <v>1998.515094741964</v>
       </c>
       <c r="S25" t="n">
-        <v>1750.485777279737</v>
+        <v>1998.515094741964</v>
       </c>
       <c r="T25" t="n">
-        <v>1512.555649566618</v>
+        <v>1760.584967028845</v>
       </c>
       <c r="U25" t="n">
-        <v>1512.555649566618</v>
+        <v>1477.807482698078</v>
       </c>
       <c r="V25" t="n">
-        <v>1512.555649566618</v>
+        <v>1203.9217376376</v>
       </c>
       <c r="W25" t="n">
-        <v>1249.276277056622</v>
+        <v>924.8520731464741</v>
       </c>
       <c r="X25" t="n">
-        <v>1010.932414916305</v>
+        <v>686.5082110061576</v>
       </c>
       <c r="Y25" t="n">
-        <v>786.1967163050701</v>
+        <v>603.6334911233445</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2514.933153063434</v>
+        <v>2514.933153063435</v>
       </c>
       <c r="C26" t="n">
-        <v>2104.808562376705</v>
+        <v>2104.808562376706</v>
       </c>
       <c r="D26" t="n">
-        <v>1700.344632469765</v>
+        <v>1700.344632469766</v>
       </c>
       <c r="E26" t="n">
         <v>1286.004416986662</v>
       </c>
       <c r="F26" t="n">
-        <v>864.9740049403492</v>
+        <v>864.9740049403499</v>
       </c>
       <c r="G26" t="n">
-        <v>457.0902437877065</v>
+        <v>457.0902437877066</v>
       </c>
       <c r="H26" t="n">
-        <v>154.8307171234542</v>
+        <v>154.8307171234546</v>
       </c>
       <c r="I26" t="n">
         <v>101.0374256448546</v>
@@ -6232,19 +6232,19 @@
         <v>1068.922539203859</v>
       </c>
       <c r="L26" t="n">
-        <v>1912.133881245</v>
+        <v>1705.263564304137</v>
       </c>
       <c r="M26" t="n">
-        <v>2216.627535643534</v>
+        <v>2626.922008793988</v>
       </c>
       <c r="N26" t="n">
-        <v>3117.500156557987</v>
+        <v>3527.79462970844</v>
       </c>
       <c r="O26" t="n">
-        <v>3900.592006851936</v>
+        <v>4310.886480002388</v>
       </c>
       <c r="P26" t="n">
-        <v>4548.775436500847</v>
+        <v>4959.0699096513</v>
       </c>
       <c r="Q26" t="n">
         <v>4959.320561835318</v>
@@ -6259,19 +6259,19 @@
         <v>4717.32518904336</v>
       </c>
       <c r="U26" t="n">
-        <v>4460.332259139232</v>
+        <v>4460.332259139233</v>
       </c>
       <c r="V26" t="n">
-        <v>4110.494704475713</v>
+        <v>4110.494704475714</v>
       </c>
       <c r="W26" t="n">
-        <v>3726.734403610882</v>
+        <v>3726.734403610883</v>
       </c>
       <c r="X26" t="n">
-        <v>3326.091005779834</v>
+        <v>3326.091005779835</v>
       </c>
       <c r="Y26" t="n">
-        <v>2925.154332727924</v>
+        <v>2925.154332727925</v>
       </c>
     </row>
     <row r="27">
@@ -6305,22 +6305,22 @@
         <v>101.0374256448546</v>
       </c>
       <c r="J27" t="n">
-        <v>273.3373729136732</v>
+        <v>335.6915603706879</v>
       </c>
       <c r="K27" t="n">
-        <v>800.6570362314549</v>
+        <v>863.0112236884695</v>
       </c>
       <c r="L27" t="n">
-        <v>841.2622587433536</v>
+        <v>1456.685189884659</v>
       </c>
       <c r="M27" t="n">
-        <v>896.4861697998927</v>
+        <v>1511.909100941198</v>
       </c>
       <c r="N27" t="n">
-        <v>959.0071946491</v>
+        <v>1574.430125790406</v>
       </c>
       <c r="O27" t="n">
-        <v>1007.202700857006</v>
+        <v>1622.625631998312</v>
       </c>
       <c r="P27" t="n">
         <v>1653.476882892512</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>511.7252138048711</v>
+        <v>101.0374256448546</v>
       </c>
       <c r="C28" t="n">
-        <v>511.7252138048711</v>
+        <v>101.0374256448546</v>
       </c>
       <c r="D28" t="n">
-        <v>352.2305691277811</v>
+        <v>101.0374256448546</v>
       </c>
       <c r="E28" t="n">
-        <v>352.2305691277811</v>
+        <v>101.0374256448546</v>
       </c>
       <c r="F28" t="n">
-        <v>352.2305691277811</v>
+        <v>101.0374256448546</v>
       </c>
       <c r="G28" t="n">
-        <v>352.2305691277811</v>
+        <v>101.0374256448546</v>
       </c>
       <c r="H28" t="n">
-        <v>205.9912029999504</v>
+        <v>101.0374256448546</v>
       </c>
       <c r="I28" t="n">
         <v>101.0374256448546</v>
@@ -6408,28 +6408,28 @@
         <v>1998.515094741964</v>
       </c>
       <c r="R28" t="n">
-        <v>1930.275677566608</v>
+        <v>1998.515094741964</v>
       </c>
       <c r="S28" t="n">
-        <v>1750.485777279737</v>
+        <v>1825.479714385941</v>
       </c>
       <c r="T28" t="n">
-        <v>1512.555649566618</v>
+        <v>1587.549586672822</v>
       </c>
       <c r="U28" t="n">
-        <v>1229.778165235851</v>
+        <v>1304.772102342054</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.530576907232</v>
+        <v>1030.886357281576</v>
       </c>
       <c r="W28" t="n">
-        <v>736.4609124161063</v>
+        <v>751.8166927904508</v>
       </c>
       <c r="X28" t="n">
-        <v>736.4609124161063</v>
+        <v>513.4728306501343</v>
       </c>
       <c r="Y28" t="n">
-        <v>511.7252138048711</v>
+        <v>288.7371320388989</v>
       </c>
     </row>
     <row r="29">
@@ -6442,22 +6442,22 @@
         <v>2514.933153063435</v>
       </c>
       <c r="C29" t="n">
-        <v>2104.808562376705</v>
+        <v>2104.808562376706</v>
       </c>
       <c r="D29" t="n">
-        <v>1700.344632469765</v>
+        <v>1700.344632469766</v>
       </c>
       <c r="E29" t="n">
         <v>1286.004416986662</v>
       </c>
       <c r="F29" t="n">
-        <v>864.9740049403492</v>
+        <v>864.9740049403499</v>
       </c>
       <c r="G29" t="n">
-        <v>457.0902437877065</v>
+        <v>457.0902437877066</v>
       </c>
       <c r="H29" t="n">
-        <v>154.8307171234542</v>
+        <v>154.8307171234546</v>
       </c>
       <c r="I29" t="n">
         <v>101.0374256448546</v>
@@ -6469,10 +6469,10 @@
         <v>1068.922539203859</v>
       </c>
       <c r="L29" t="n">
-        <v>1294.969091153684</v>
+        <v>1912.133881245</v>
       </c>
       <c r="M29" t="n">
-        <v>2216.627535643534</v>
+        <v>2833.79232573485</v>
       </c>
       <c r="N29" t="n">
         <v>3117.500156557987</v>
@@ -6502,7 +6502,7 @@
         <v>4110.494704475714</v>
       </c>
       <c r="W29" t="n">
-        <v>3726.734403610882</v>
+        <v>3726.734403610883</v>
       </c>
       <c r="X29" t="n">
         <v>3326.091005779835</v>
@@ -6542,16 +6542,16 @@
         <v>101.0374256448546</v>
       </c>
       <c r="J30" t="n">
-        <v>101.0374256448546</v>
+        <v>335.6915603706879</v>
       </c>
       <c r="K30" t="n">
-        <v>489.7604158013302</v>
+        <v>863.0112236884695</v>
       </c>
       <c r="L30" t="n">
-        <v>530.3656383132291</v>
+        <v>1456.685189884659</v>
       </c>
       <c r="M30" t="n">
-        <v>585.5895493697681</v>
+        <v>1511.909100941198</v>
       </c>
       <c r="N30" t="n">
         <v>1574.430125790406</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>418.3701642109688</v>
+        <v>101.0374256448546</v>
       </c>
       <c r="C31" t="n">
-        <v>247.2767917726853</v>
+        <v>101.0374256448546</v>
       </c>
       <c r="D31" t="n">
-        <v>247.2767917726853</v>
+        <v>101.0374256448546</v>
       </c>
       <c r="E31" t="n">
-        <v>247.2767917726853</v>
+        <v>101.0374256448546</v>
       </c>
       <c r="F31" t="n">
-        <v>247.2767917726853</v>
+        <v>101.0374256448546</v>
       </c>
       <c r="G31" t="n">
-        <v>247.2767917726853</v>
+        <v>101.0374256448546</v>
       </c>
       <c r="H31" t="n">
         <v>101.0374256448546</v>
@@ -6645,28 +6645,28 @@
         <v>1998.515094741964</v>
       </c>
       <c r="R31" t="n">
-        <v>1930.275677566608</v>
+        <v>1998.515094741964</v>
       </c>
       <c r="S31" t="n">
-        <v>1750.485777279737</v>
+        <v>1825.479714385941</v>
       </c>
       <c r="T31" t="n">
-        <v>1512.555649566618</v>
+        <v>1587.549586672822</v>
       </c>
       <c r="U31" t="n">
-        <v>1229.778165235851</v>
+        <v>1304.772102342054</v>
       </c>
       <c r="V31" t="n">
-        <v>1109.875233707374</v>
+        <v>1030.886357281576</v>
       </c>
       <c r="W31" t="n">
-        <v>830.8055692162485</v>
+        <v>751.8166927904508</v>
       </c>
       <c r="X31" t="n">
-        <v>830.8055692162485</v>
+        <v>513.4728306501343</v>
       </c>
       <c r="Y31" t="n">
-        <v>606.0698706050132</v>
+        <v>288.7371320388989</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2514.933153063435</v>
+        <v>2514.933153063434</v>
       </c>
       <c r="C32" t="n">
-        <v>2104.808562376706</v>
+        <v>2104.808562376705</v>
       </c>
       <c r="D32" t="n">
-        <v>1700.344632469766</v>
+        <v>1700.344632469765</v>
       </c>
       <c r="E32" t="n">
-        <v>1286.004416986663</v>
+        <v>1286.004416986662</v>
       </c>
       <c r="F32" t="n">
-        <v>864.9740049403504</v>
+        <v>864.9740049403492</v>
       </c>
       <c r="G32" t="n">
         <v>457.0902437877065</v>
@@ -6706,22 +6706,22 @@
         <v>1068.922539203859</v>
       </c>
       <c r="L32" t="n">
-        <v>1294.969091153684</v>
+        <v>1912.133881245</v>
       </c>
       <c r="M32" t="n">
-        <v>2216.627535643534</v>
+        <v>2833.79232573485</v>
       </c>
       <c r="N32" t="n">
-        <v>3117.500156557987</v>
+        <v>3734.664946649303</v>
       </c>
       <c r="O32" t="n">
-        <v>3900.592006851936</v>
+        <v>4517.756796943251</v>
       </c>
       <c r="P32" t="n">
-        <v>4548.775436500847</v>
+        <v>4641.326156908257</v>
       </c>
       <c r="Q32" t="n">
-        <v>4959.320561835318</v>
+        <v>5051.871282242728</v>
       </c>
       <c r="R32" t="n">
         <v>5051.871282242728</v>
@@ -6736,16 +6736,16 @@
         <v>4460.332259139233</v>
       </c>
       <c r="V32" t="n">
-        <v>4110.494704475714</v>
+        <v>4110.494704475713</v>
       </c>
       <c r="W32" t="n">
         <v>3726.734403610882</v>
       </c>
       <c r="X32" t="n">
-        <v>3326.091005779835</v>
+        <v>3326.091005779834</v>
       </c>
       <c r="Y32" t="n">
-        <v>2925.154332727925</v>
+        <v>2925.154332727924</v>
       </c>
     </row>
     <row r="33">
@@ -6779,22 +6779,22 @@
         <v>101.0374256448546</v>
       </c>
       <c r="J33" t="n">
-        <v>101.0374256448546</v>
+        <v>335.6915603706879</v>
       </c>
       <c r="K33" t="n">
-        <v>117.2833077405683</v>
+        <v>863.0112236884695</v>
       </c>
       <c r="L33" t="n">
-        <v>157.8885302524671</v>
+        <v>903.6164462003683</v>
       </c>
       <c r="M33" t="n">
-        <v>213.1124413090061</v>
+        <v>958.8403572569073</v>
       </c>
       <c r="N33" t="n">
-        <v>813.2990710345116</v>
+        <v>1021.361382106115</v>
       </c>
       <c r="O33" t="n">
-        <v>1622.625631998312</v>
+        <v>1069.556888314021</v>
       </c>
       <c r="P33" t="n">
         <v>1653.476882892512</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>272.1307980831381</v>
+        <v>274.0728060008779</v>
       </c>
       <c r="C34" t="n">
-        <v>101.0374256448546</v>
+        <v>274.0728060008779</v>
       </c>
       <c r="D34" t="n">
-        <v>101.0374256448546</v>
+        <v>274.0728060008779</v>
       </c>
       <c r="E34" t="n">
-        <v>101.0374256448546</v>
+        <v>113.1619908691974</v>
       </c>
       <c r="F34" t="n">
-        <v>101.0374256448546</v>
+        <v>113.1619908691974</v>
       </c>
       <c r="G34" t="n">
         <v>101.0374256448546</v>
@@ -6879,31 +6879,31 @@
         <v>1901.89698173653</v>
       </c>
       <c r="Q34" t="n">
-        <v>1998.515094741968</v>
+        <v>1998.515094741964</v>
       </c>
       <c r="R34" t="n">
-        <v>1930.275677566611</v>
+        <v>1998.515094741964</v>
       </c>
       <c r="S34" t="n">
-        <v>1750.48577727974</v>
+        <v>1998.515094741964</v>
       </c>
       <c r="T34" t="n">
-        <v>1512.555649566621</v>
+        <v>1760.584967028845</v>
       </c>
       <c r="U34" t="n">
-        <v>1229.778165235854</v>
+        <v>1477.807482698078</v>
       </c>
       <c r="V34" t="n">
-        <v>955.8924201753762</v>
+        <v>1203.9217376376</v>
       </c>
       <c r="W34" t="n">
-        <v>676.8227556842505</v>
+        <v>924.8520731464741</v>
       </c>
       <c r="X34" t="n">
-        <v>676.8227556842505</v>
+        <v>686.5082110061576</v>
       </c>
       <c r="Y34" t="n">
-        <v>452.0870570730152</v>
+        <v>461.7725123949223</v>
       </c>
     </row>
     <row r="35">
@@ -6922,16 +6922,16 @@
         <v>1700.344632469766</v>
       </c>
       <c r="E35" t="n">
-        <v>1286.004416986662</v>
+        <v>1286.004416986663</v>
       </c>
       <c r="F35" t="n">
-        <v>864.9740049403499</v>
+        <v>864.9740049403504</v>
       </c>
       <c r="G35" t="n">
-        <v>457.0902437877066</v>
+        <v>457.0902437877076</v>
       </c>
       <c r="H35" t="n">
-        <v>154.8307171234544</v>
+        <v>154.8307171234542</v>
       </c>
       <c r="I35" t="n">
         <v>101.0374256448546</v>
@@ -6946,13 +6946,13 @@
         <v>1912.133881245</v>
       </c>
       <c r="M35" t="n">
-        <v>2833.79232573485</v>
+        <v>2216.627535643534</v>
       </c>
       <c r="N35" t="n">
-        <v>3734.664946649303</v>
+        <v>3117.500156557987</v>
       </c>
       <c r="O35" t="n">
-        <v>4517.756796943251</v>
+        <v>3900.592006851936</v>
       </c>
       <c r="P35" t="n">
         <v>4548.775436500847</v>
@@ -6976,7 +6976,7 @@
         <v>4110.494704475714</v>
       </c>
       <c r="W35" t="n">
-        <v>3726.734403610883</v>
+        <v>3726.734403610882</v>
       </c>
       <c r="X35" t="n">
         <v>3326.091005779835</v>
@@ -7019,25 +7019,25 @@
         <v>335.6915603706879</v>
       </c>
       <c r="K36" t="n">
-        <v>351.9374424664015</v>
+        <v>863.0112236884695</v>
       </c>
       <c r="L36" t="n">
-        <v>993.3919545534666</v>
+        <v>903.6164462003683</v>
       </c>
       <c r="M36" t="n">
-        <v>1048.615865610006</v>
+        <v>958.8403572569073</v>
       </c>
       <c r="N36" t="n">
-        <v>2037.456442030643</v>
+        <v>1021.361382106115</v>
       </c>
       <c r="O36" t="n">
-        <v>2085.651948238549</v>
+        <v>1069.556888314021</v>
       </c>
       <c r="P36" t="n">
-        <v>2116.503199132749</v>
+        <v>1653.476882892512</v>
       </c>
       <c r="Q36" t="n">
-        <v>2116.909168785837</v>
+        <v>2059.853009549373</v>
       </c>
       <c r="R36" t="n">
         <v>2116.909168785837</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>702.6265164593231</v>
+        <v>436.7619239725468</v>
       </c>
       <c r="C37" t="n">
-        <v>531.5331440210396</v>
+        <v>265.6685515342633</v>
       </c>
       <c r="D37" t="n">
-        <v>531.5331440210396</v>
+        <v>265.6685515342633</v>
       </c>
       <c r="E37" t="n">
-        <v>370.6223288893591</v>
+        <v>265.6685515342633</v>
       </c>
       <c r="F37" t="n">
-        <v>205.9912029999504</v>
+        <v>101.0374256448546</v>
       </c>
       <c r="G37" t="n">
-        <v>205.9912029999504</v>
+        <v>101.0374256448546</v>
       </c>
       <c r="H37" t="n">
-        <v>205.9912029999504</v>
+        <v>101.0374256448546</v>
       </c>
       <c r="I37" t="n">
         <v>101.0374256448546</v>
@@ -7119,28 +7119,28 @@
         <v>1998.515094741964</v>
       </c>
       <c r="R37" t="n">
-        <v>1930.275677566608</v>
+        <v>1998.515094741964</v>
       </c>
       <c r="S37" t="n">
-        <v>1750.485777279737</v>
+        <v>1818.725194455093</v>
       </c>
       <c r="T37" t="n">
-        <v>1512.555649566618</v>
+        <v>1649.388339940036</v>
       </c>
       <c r="U37" t="n">
-        <v>1229.778165235851</v>
+        <v>1366.610855609269</v>
       </c>
       <c r="V37" t="n">
-        <v>1229.778165235851</v>
+        <v>1366.610855609269</v>
       </c>
       <c r="W37" t="n">
-        <v>1165.706077210875</v>
+        <v>1087.541191118143</v>
       </c>
       <c r="X37" t="n">
-        <v>927.3622150705584</v>
+        <v>849.1973289778265</v>
       </c>
       <c r="Y37" t="n">
-        <v>702.6265164593231</v>
+        <v>624.4616303665912</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2514.933153063434</v>
+        <v>2514.933153063435</v>
       </c>
       <c r="C38" t="n">
-        <v>2104.808562376705</v>
+        <v>2104.808562376706</v>
       </c>
       <c r="D38" t="n">
-        <v>1700.344632469765</v>
+        <v>1700.344632469766</v>
       </c>
       <c r="E38" t="n">
-        <v>1286.004416986662</v>
+        <v>1286.004416986663</v>
       </c>
       <c r="F38" t="n">
-        <v>864.9740049403492</v>
+        <v>864.9740049403504</v>
       </c>
       <c r="G38" t="n">
-        <v>457.0902437877065</v>
+        <v>457.0902437877076</v>
       </c>
       <c r="H38" t="n">
-        <v>154.8307171234542</v>
+        <v>154.8307171234553</v>
       </c>
       <c r="I38" t="n">
         <v>101.0374256448546</v>
@@ -7177,10 +7177,10 @@
         <v>425.4743384050085</v>
       </c>
       <c r="K38" t="n">
-        <v>451.7577491125431</v>
+        <v>1068.922539203859</v>
       </c>
       <c r="L38" t="n">
-        <v>1294.969091153684</v>
+        <v>1912.133881245</v>
       </c>
       <c r="M38" t="n">
         <v>2216.627535643534</v>
@@ -7219,7 +7219,7 @@
         <v>3326.091005779835</v>
       </c>
       <c r="Y38" t="n">
-        <v>2925.154332727924</v>
+        <v>2925.154332727925</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>101.0374256448546</v>
       </c>
       <c r="J39" t="n">
-        <v>101.0374256448546</v>
+        <v>335.6915603706879</v>
       </c>
       <c r="K39" t="n">
-        <v>117.2833077405683</v>
+        <v>863.0112236884695</v>
       </c>
       <c r="L39" t="n">
-        <v>157.8885302524671</v>
+        <v>903.6164462003683</v>
       </c>
       <c r="M39" t="n">
-        <v>213.1124413090061</v>
+        <v>958.8403572569073</v>
       </c>
       <c r="N39" t="n">
-        <v>1201.953017729644</v>
+        <v>1021.361382106115</v>
       </c>
       <c r="O39" t="n">
-        <v>1470.229017097244</v>
+        <v>1069.556888314021</v>
       </c>
       <c r="P39" t="n">
-        <v>2116.503199132749</v>
+        <v>1653.476882892512</v>
       </c>
       <c r="Q39" t="n">
-        <v>2116.909168785837</v>
+        <v>2059.853009549373</v>
       </c>
       <c r="R39" t="n">
         <v>2116.909168785837</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3962.723689429029</v>
+        <v>585.2417313617665</v>
       </c>
       <c r="C40" t="n">
-        <v>3791.630316990745</v>
+        <v>414.148358923483</v>
       </c>
       <c r="D40" t="n">
-        <v>3632.135672313655</v>
+        <v>414.148358923483</v>
       </c>
       <c r="E40" t="n">
-        <v>3632.135672313655</v>
+        <v>414.148358923483</v>
       </c>
       <c r="F40" t="n">
-        <v>3467.504546424246</v>
+        <v>414.148358923483</v>
       </c>
       <c r="G40" t="n">
-        <v>3300.632979273449</v>
+        <v>247.2767917726853</v>
       </c>
       <c r="H40" t="n">
-        <v>3154.393613145618</v>
+        <v>101.0374256448546</v>
       </c>
       <c r="I40" t="n">
-        <v>3154.393613145618</v>
+        <v>101.0374256448546</v>
       </c>
       <c r="J40" t="n">
-        <v>3194.726035210598</v>
+        <v>141.3698477098347</v>
       </c>
       <c r="K40" t="n">
-        <v>3392.414967355088</v>
+        <v>339.0587798543248</v>
       </c>
       <c r="L40" t="n">
-        <v>3707.512069882529</v>
+        <v>654.155882381765</v>
       </c>
       <c r="M40" t="n">
-        <v>4054.976789081464</v>
+        <v>1001.620601580701</v>
       </c>
       <c r="N40" t="n">
-        <v>4392.632352558639</v>
+        <v>1339.276165057875</v>
       </c>
       <c r="O40" t="n">
-        <v>4704.672456277694</v>
+        <v>1651.31626877693</v>
       </c>
       <c r="P40" t="n">
-        <v>4955.253169237293</v>
+        <v>1901.89698173653</v>
       </c>
       <c r="Q40" t="n">
-        <v>5051.871282242728</v>
+        <v>1998.515094741964</v>
       </c>
       <c r="R40" t="n">
-        <v>4983.631865067371</v>
+        <v>1998.515094741964</v>
       </c>
       <c r="S40" t="n">
-        <v>4983.631865067371</v>
+        <v>1818.725194455093</v>
       </c>
       <c r="T40" t="n">
-        <v>4983.631865067371</v>
+        <v>1580.795066741974</v>
       </c>
       <c r="U40" t="n">
-        <v>4700.854380736604</v>
+        <v>1298.017582411207</v>
       </c>
       <c r="V40" t="n">
-        <v>4466.529052531389</v>
+        <v>1024.131837350729</v>
       </c>
       <c r="W40" t="n">
-        <v>4187.459388040264</v>
+        <v>745.0621728596034</v>
       </c>
       <c r="X40" t="n">
-        <v>4187.459388040264</v>
+        <v>745.0621728596034</v>
       </c>
       <c r="Y40" t="n">
-        <v>3962.723689429029</v>
+        <v>745.0621728596034</v>
       </c>
     </row>
     <row r="41">
@@ -7396,16 +7396,16 @@
         <v>1700.344632469766</v>
       </c>
       <c r="E41" t="n">
-        <v>1286.004416986662</v>
+        <v>1286.004416986663</v>
       </c>
       <c r="F41" t="n">
-        <v>864.9740049403499</v>
+        <v>864.9740049403504</v>
       </c>
       <c r="G41" t="n">
-        <v>457.0902437877066</v>
+        <v>457.0902437877076</v>
       </c>
       <c r="H41" t="n">
-        <v>154.8307171234546</v>
+        <v>154.8307171234553</v>
       </c>
       <c r="I41" t="n">
         <v>101.0374256448546</v>
@@ -7414,22 +7414,22 @@
         <v>425.4743384050085</v>
       </c>
       <c r="K41" t="n">
-        <v>1068.922539203859</v>
+        <v>544.3084695199533</v>
       </c>
       <c r="L41" t="n">
-        <v>1912.133881245</v>
+        <v>1387.519811561094</v>
       </c>
       <c r="M41" t="n">
-        <v>2833.79232573485</v>
+        <v>2309.178256050945</v>
       </c>
       <c r="N41" t="n">
-        <v>3734.664946649303</v>
+        <v>3210.050876965397</v>
       </c>
       <c r="O41" t="n">
-        <v>4517.756796943251</v>
+        <v>3993.142727259346</v>
       </c>
       <c r="P41" t="n">
-        <v>5051.62063005871</v>
+        <v>4641.326156908257</v>
       </c>
       <c r="Q41" t="n">
         <v>5051.871282242728</v>
@@ -7450,7 +7450,7 @@
         <v>4110.494704475714</v>
       </c>
       <c r="W41" t="n">
-        <v>3726.734403610883</v>
+        <v>3726.734403610882</v>
       </c>
       <c r="X41" t="n">
         <v>3326.091005779835</v>
@@ -7490,28 +7490,28 @@
         <v>101.0374256448546</v>
       </c>
       <c r="J42" t="n">
-        <v>101.0374256448546</v>
+        <v>335.6915603706879</v>
       </c>
       <c r="K42" t="n">
-        <v>628.3570889626362</v>
+        <v>863.0112236884695</v>
       </c>
       <c r="L42" t="n">
-        <v>668.962311474535</v>
+        <v>903.6164462003683</v>
       </c>
       <c r="M42" t="n">
-        <v>724.186222531074</v>
+        <v>958.8403572569073</v>
       </c>
       <c r="N42" t="n">
-        <v>786.7072473802814</v>
+        <v>1574.430125790406</v>
       </c>
       <c r="O42" t="n">
-        <v>1596.033808344082</v>
+        <v>1622.625631998312</v>
       </c>
       <c r="P42" t="n">
-        <v>1710.533042128975</v>
+        <v>1653.476882892512</v>
       </c>
       <c r="Q42" t="n">
-        <v>2116.909168785837</v>
+        <v>2059.853009549373</v>
       </c>
       <c r="R42" t="n">
         <v>2116.909168785837</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4061.716714765008</v>
+        <v>578.7794848128917</v>
       </c>
       <c r="C43" t="n">
-        <v>3890.623342326724</v>
+        <v>578.7794848128917</v>
       </c>
       <c r="D43" t="n">
-        <v>3731.128697649634</v>
+        <v>578.7794848128917</v>
       </c>
       <c r="E43" t="n">
-        <v>3570.217882517954</v>
+        <v>578.7794848128917</v>
       </c>
       <c r="F43" t="n">
-        <v>3405.586756628545</v>
+        <v>414.148358923483</v>
       </c>
       <c r="G43" t="n">
-        <v>3405.586756628545</v>
+        <v>247.2767917726853</v>
       </c>
       <c r="H43" t="n">
-        <v>3259.347390500714</v>
+        <v>101.0374256448546</v>
       </c>
       <c r="I43" t="n">
-        <v>3154.393613145618</v>
+        <v>101.0374256448546</v>
       </c>
       <c r="J43" t="n">
-        <v>3194.726035210598</v>
+        <v>141.3698477098347</v>
       </c>
       <c r="K43" t="n">
-        <v>3392.414967355088</v>
+        <v>339.0587798543248</v>
       </c>
       <c r="L43" t="n">
-        <v>3707.512069882529</v>
+        <v>654.155882381765</v>
       </c>
       <c r="M43" t="n">
-        <v>4054.976789081464</v>
+        <v>1001.620601580701</v>
       </c>
       <c r="N43" t="n">
-        <v>4392.632352558639</v>
+        <v>1339.276165057875</v>
       </c>
       <c r="O43" t="n">
-        <v>4704.672456277694</v>
+        <v>1651.31626877693</v>
       </c>
       <c r="P43" t="n">
-        <v>4955.253169237293</v>
+        <v>1901.89698173653</v>
       </c>
       <c r="Q43" t="n">
-        <v>5051.871282242728</v>
+        <v>1998.515094741964</v>
       </c>
       <c r="R43" t="n">
-        <v>4983.631865067371</v>
+        <v>1998.515094741964</v>
       </c>
       <c r="S43" t="n">
-        <v>4983.631865067371</v>
+        <v>1818.725194455093</v>
       </c>
       <c r="T43" t="n">
-        <v>4745.701737354252</v>
+        <v>1580.795066741974</v>
       </c>
       <c r="U43" t="n">
-        <v>4462.924253023485</v>
+        <v>1298.017582411207</v>
       </c>
       <c r="V43" t="n">
-        <v>4189.038507963007</v>
+        <v>1298.017582411207</v>
       </c>
       <c r="W43" t="n">
-        <v>4061.716714765008</v>
+        <v>1229.558751958488</v>
       </c>
       <c r="X43" t="n">
-        <v>4061.716714765008</v>
+        <v>991.2148898181714</v>
       </c>
       <c r="Y43" t="n">
-        <v>4061.716714765008</v>
+        <v>766.4791912069361</v>
       </c>
     </row>
     <row r="44">
@@ -7651,25 +7651,25 @@
         <v>425.4743384050085</v>
       </c>
       <c r="K44" t="n">
-        <v>862.0522222629962</v>
+        <v>1068.922539203859</v>
       </c>
       <c r="L44" t="n">
-        <v>1705.263564304137</v>
+        <v>1912.133881245</v>
       </c>
       <c r="M44" t="n">
-        <v>2626.922008793988</v>
+        <v>2833.79232573485</v>
       </c>
       <c r="N44" t="n">
-        <v>3527.79462970844</v>
+        <v>3620.34535011585</v>
       </c>
       <c r="O44" t="n">
-        <v>4310.886480002388</v>
+        <v>4403.437200409799</v>
       </c>
       <c r="P44" t="n">
-        <v>4959.0699096513</v>
+        <v>5051.62063005871</v>
       </c>
       <c r="Q44" t="n">
-        <v>4959.320561835318</v>
+        <v>5051.871282242728</v>
       </c>
       <c r="R44" t="n">
         <v>5051.871282242728</v>
@@ -7681,16 +7681,16 @@
         <v>4717.32518904336</v>
       </c>
       <c r="U44" t="n">
-        <v>4460.332259139232</v>
+        <v>4460.332259139233</v>
       </c>
       <c r="V44" t="n">
-        <v>4110.494704475713</v>
+        <v>4110.494704475714</v>
       </c>
       <c r="W44" t="n">
         <v>3726.734403610882</v>
       </c>
       <c r="X44" t="n">
-        <v>3326.091005779834</v>
+        <v>3326.091005779835</v>
       </c>
       <c r="Y44" t="n">
         <v>2925.154332727924</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3694.457061430131</v>
+        <v>759.4949479732404</v>
       </c>
       <c r="C45" t="n">
-        <v>3560.461990179077</v>
+        <v>625.4998767221862</v>
       </c>
       <c r="D45" t="n">
-        <v>3443.564832398469</v>
+        <v>508.6027189415786</v>
       </c>
       <c r="E45" t="n">
-        <v>3323.072016390797</v>
+        <v>388.1099029339066</v>
       </c>
       <c r="F45" t="n">
-        <v>3214.112136573302</v>
+        <v>279.1500231164111</v>
       </c>
       <c r="G45" t="n">
-        <v>3107.5738835043</v>
+        <v>172.6117700474092</v>
       </c>
       <c r="H45" t="n">
-        <v>3041.190683153542</v>
+        <v>106.2285696966508</v>
       </c>
       <c r="I45" t="n">
-        <v>3035.999539101746</v>
+        <v>101.0374256448546</v>
       </c>
       <c r="J45" t="n">
-        <v>3035.999539101746</v>
+        <v>335.6915603706879</v>
       </c>
       <c r="K45" t="n">
-        <v>3052.245421197459</v>
+        <v>863.0112236884695</v>
       </c>
       <c r="L45" t="n">
-        <v>3687.572407822119</v>
+        <v>903.6164462003683</v>
       </c>
       <c r="M45" t="n">
-        <v>3742.796318878658</v>
+        <v>958.8403572569073</v>
       </c>
       <c r="N45" t="n">
-        <v>3805.317343727866</v>
+        <v>1021.361382106115</v>
       </c>
       <c r="O45" t="n">
-        <v>4614.643904691666</v>
+        <v>1069.556888314021</v>
       </c>
       <c r="P45" t="n">
-        <v>4645.495155585866</v>
+        <v>1710.533042128975</v>
       </c>
       <c r="Q45" t="n">
-        <v>5051.871282242728</v>
+        <v>2116.909168785837</v>
       </c>
       <c r="R45" t="n">
-        <v>5051.871282242728</v>
+        <v>2116.909168785837</v>
       </c>
       <c r="S45" t="n">
-        <v>4952.274366552441</v>
+        <v>2017.312253095551</v>
       </c>
       <c r="T45" t="n">
-        <v>4794.753814089055</v>
+        <v>1859.791700632164</v>
       </c>
       <c r="U45" t="n">
-        <v>4597.432730833632</v>
+        <v>1662.470617376742</v>
       </c>
       <c r="V45" t="n">
-        <v>4383.721203826666</v>
+        <v>1448.759090369776</v>
       </c>
       <c r="W45" t="n">
-        <v>4170.488035562995</v>
+        <v>1235.525922106104</v>
       </c>
       <c r="X45" t="n">
-        <v>3994.162053701888</v>
+        <v>1059.199940244997</v>
       </c>
       <c r="Y45" t="n">
-        <v>3834.760094065718</v>
+        <v>899.7979806088271</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3566.497571760225</v>
+        <v>101.0374256448546</v>
       </c>
       <c r="C46" t="n">
-        <v>3566.497571760225</v>
+        <v>101.0374256448546</v>
       </c>
       <c r="D46" t="n">
-        <v>3566.497571760225</v>
+        <v>101.0374256448546</v>
       </c>
       <c r="E46" t="n">
-        <v>3405.586756628545</v>
+        <v>101.0374256448546</v>
       </c>
       <c r="F46" t="n">
-        <v>3405.586756628545</v>
+        <v>101.0374256448546</v>
       </c>
       <c r="G46" t="n">
-        <v>3405.586756628545</v>
+        <v>101.0374256448546</v>
       </c>
       <c r="H46" t="n">
-        <v>3259.347390500714</v>
+        <v>101.0374256448546</v>
       </c>
       <c r="I46" t="n">
-        <v>3154.393613145618</v>
+        <v>101.0374256448546</v>
       </c>
       <c r="J46" t="n">
-        <v>3194.726035210598</v>
+        <v>141.3698477098347</v>
       </c>
       <c r="K46" t="n">
-        <v>3392.414967355088</v>
+        <v>339.0587798543248</v>
       </c>
       <c r="L46" t="n">
-        <v>3707.512069882529</v>
+        <v>654.155882381765</v>
       </c>
       <c r="M46" t="n">
-        <v>4054.976789081464</v>
+        <v>1001.620601580701</v>
       </c>
       <c r="N46" t="n">
-        <v>4392.632352558639</v>
+        <v>1339.276165057875</v>
       </c>
       <c r="O46" t="n">
-        <v>4704.672456277694</v>
+        <v>1651.31626877693</v>
       </c>
       <c r="P46" t="n">
-        <v>4955.253169237293</v>
+        <v>1901.89698173653</v>
       </c>
       <c r="Q46" t="n">
-        <v>5051.871282242728</v>
+        <v>1998.515094741964</v>
       </c>
       <c r="R46" t="n">
-        <v>4983.631865067371</v>
+        <v>1998.515094741964</v>
       </c>
       <c r="S46" t="n">
-        <v>4803.8419647805</v>
+        <v>1825.479714385941</v>
       </c>
       <c r="T46" t="n">
-        <v>4565.911837067381</v>
+        <v>1587.549586672822</v>
       </c>
       <c r="U46" t="n">
-        <v>4283.134352736614</v>
+        <v>1304.772102342054</v>
       </c>
       <c r="V46" t="n">
-        <v>4283.134352736614</v>
+        <v>1030.886357281576</v>
       </c>
       <c r="W46" t="n">
-        <v>4029.577132511777</v>
+        <v>751.8166927904508</v>
       </c>
       <c r="X46" t="n">
-        <v>3791.233270371461</v>
+        <v>513.4728306501343</v>
       </c>
       <c r="Y46" t="n">
-        <v>3566.497571760225</v>
+        <v>288.7371320388989</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>603.3893853724475</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>609.7383937620752</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>607.5432201562759</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>607.1652864558497</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>478.7935005792132</v>
       </c>
       <c r="P2" t="n">
-        <v>479.2530882343142</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
@@ -8063,22 +8063,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>570.3675195100794</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>571.8172794376478</v>
+        <v>326.4208180707462</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>567.4463890929803</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>572.0044746992304</v>
       </c>
       <c r="P3" t="n">
-        <v>483.9909178788241</v>
+        <v>568.5126307020341</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8218,28 +8218,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>603.3893853724475</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>609.7383937620752</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>478.8939494104755</v>
       </c>
       <c r="N5" t="n">
-        <v>519.4823244873877</v>
+        <v>607.1652864558497</v>
       </c>
       <c r="O5" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>607.9023589801145</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,22 +8294,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>570.3675195100794</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>251.5037693012706</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>512.7827766360632</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>572.0044746992304</v>
       </c>
       <c r="P6" t="n">
         <v>568.5126307020341</v>
@@ -8452,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>201.4273220700876</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>603.3893853724475</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>221.3939551938251</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>607.1652864558497</v>
       </c>
       <c r="O8" t="n">
         <v>607.4427713250135</v>
@@ -8531,28 +8531,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>570.3675195100794</v>
+        <v>539.6884425221617</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>516.8103899105568</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>572.0044746992304</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
         <v>568.5126307020341</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>88.85829947169823</v>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2.36253952280326</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>497.0371634635477</v>
+        <v>474.9508718353298</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8704,13 +8704,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>466.5730805403225</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>487.6733370308625</v>
+        <v>487.6733370308624</v>
       </c>
       <c r="Q11" t="n">
-        <v>253.4935428926782</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
         <v>128.2784515920617</v>
@@ -8771,25 +8771,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>497.8430137843681</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>70.44817963257137</v>
+        <v>473.2376194245851</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>451.1004453464956</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>465.5706661962951</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>483.0901160081193</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>63.06390333073003</v>
       </c>
       <c r="R12" t="n">
         <v>88.85829947169823</v>
@@ -8932,10 +8932,10 @@
         <v>497.0371634635477</v>
       </c>
       <c r="L14" t="n">
-        <v>4.851758072728813</v>
+        <v>71.39928454088302</v>
       </c>
       <c r="M14" t="n">
-        <v>460.7352873299158</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8944,13 +8944,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>487.6733370308624</v>
       </c>
       <c r="Q14" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>34.79287542296087</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,28 +9005,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>9.105322473535338</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
         <v>497.8430137843681</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>93.95830950686484</v>
       </c>
       <c r="M15" t="n">
-        <v>275.4828874818904</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>465.5706661962951</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>483.0901160081193</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
         <v>88.85829947169823</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.36253952280326</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>497.0371634635477</v>
       </c>
       <c r="L17" t="n">
-        <v>465.1067032050718</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>460.7352873299159</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>457.9818477933908</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>466.5730805403225</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.4388617681339</v>
+        <v>413.4528266304559</v>
       </c>
       <c r="R17" t="n">
-        <v>34.79287542296087</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>9.105322473535338</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>497.8430137843682</v>
+        <v>497.8430137843681</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>93.95830950686532</v>
       </c>
       <c r="M18" t="n">
-        <v>458.4712673592921</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>451.1004453464957</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>483.0901160081193</v>
       </c>
       <c r="Q18" t="n">
-        <v>372.2044410577529</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>31.2258153944619</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2.36253952280326</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>497.0371634635477</v>
       </c>
       <c r="L20" t="n">
-        <v>477.7990581773248</v>
+        <v>477.7990581773247</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>81.27356339442078</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>324.8658669510902</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>487.6733370308625</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>34.79287542296087</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,25 +9479,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>9.105322473535338</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>473.2376194245852</v>
+        <v>473.2376194245851</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>118.5637038666477</v>
       </c>
       <c r="N21" t="n">
-        <v>451.1004453464957</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>387.577753039214</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>483.0901160081193</v>
       </c>
       <c r="Q21" t="n">
         <v>410.0708656603775</v>
@@ -9640,7 +9640,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>632.7318453389136</v>
+        <v>9.333067468896903</v>
       </c>
       <c r="L23" t="n">
         <v>815.2746908024792</v>
@@ -9655,7 +9655,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P23" t="n">
-        <v>4.75230048071764</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q23" t="n">
         <v>414.4388617681339</v>
@@ -9716,13 +9716,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>9.105322473535338</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>723.8803540323523</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>196.8476086579722</v>
       </c>
       <c r="Q24" t="n">
-        <v>62.43001471970402</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>88.85829947169823</v>
+        <v>31.2258153944619</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9880,10 +9880,10 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L26" t="n">
-        <v>815.2746908024792</v>
+        <v>606.3147747005977</v>
       </c>
       <c r="M26" t="n">
-        <v>254.051639507993</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N26" t="n">
         <v>853.701196452193</v>
@@ -9895,7 +9895,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q26" t="n">
-        <v>414.4388617681339</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>128.2784515920617</v>
@@ -9953,13 +9953,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>183.1456732501198</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>558.6552966507991</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>621.6393243851574</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>410.0708656603775</v>
@@ -10117,13 +10117,13 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L29" t="n">
-        <v>191.8759129324633</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M29" t="n">
         <v>877.4504173780091</v>
       </c>
       <c r="N29" t="n">
-        <v>853.701196452193</v>
+        <v>230.3024185821772</v>
       </c>
       <c r="O29" t="n">
         <v>743.321953824879</v>
@@ -10190,19 +10190,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>9.105322473535338</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>376.2395030916787</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>558.6552966507991</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L32" t="n">
-        <v>191.8759129324633</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M32" t="n">
         <v>877.4504173780091</v>
@@ -10366,13 +10366,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P32" t="n">
-        <v>628.1510783507341</v>
+        <v>98.23787664981973</v>
       </c>
       <c r="Q32" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
-        <v>128.2784515920617</v>
+        <v>34.79287542296087</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,10 +10427,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>9.105322473535338</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,13 +10439,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>543.0965705821192</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>558.6552966507991</v>
       </c>
       <c r="Q33" t="n">
         <v>410.0708656603775</v>
@@ -10594,7 +10594,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M35" t="n">
-        <v>877.4504173780091</v>
+        <v>254.051639507993</v>
       </c>
       <c r="N35" t="n">
         <v>853.701196452193</v>
@@ -10603,7 +10603,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P35" t="n">
-        <v>4.75230048071856</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q35" t="n">
         <v>414.4388617681339</v>
@@ -10667,28 +10667,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>606.9184743183497</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>558.6552966507991</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>31.2258153944619</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,13 +10825,13 @@
         <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>9.333067468897763</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L38" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M38" t="n">
-        <v>877.4504173780091</v>
+        <v>254.051639507993</v>
       </c>
       <c r="N38" t="n">
         <v>853.701196452193</v>
@@ -10901,10 +10901,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>9.105322473535338</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>222.3035284441352</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>621.6393243851574</v>
+        <v>558.6552966507991</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>31.2258153944619</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>632.7318453389136</v>
+        <v>102.8186436379989</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
@@ -11077,10 +11077,10 @@
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>512.6767384179541</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
         <v>34.79287542296087</v>
@@ -11138,7 +11138,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>9.105322473535338</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>516.2361426485535</v>
@@ -11150,19 +11150,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>558.6552966507991</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>84.492912010802</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>31.2258153944619</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>423.7719292370322</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
         <v>815.2746908024792</v>
@@ -11308,7 +11308,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>853.701196452193</v>
+        <v>738.2268565194123</v>
       </c>
       <c r="O44" t="n">
         <v>743.321953824879</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>34.79287542296087</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>9.105322473535338</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>600.7290546593543</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,10 +11390,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>616.2877807280353</v>
       </c>
       <c r="Q45" t="n">
         <v>410.0708656603775</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -23266,16 +23266,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>403.8049235411163</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>180.7469551142663</v>
       </c>
       <c r="I11" t="n">
         <v>53.25535856381365</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>114.8761432958628</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,16 +23317,16 @@
         <v>254.4230006050866</v>
       </c>
       <c r="V11" t="n">
-        <v>97.0094185716693</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>78.17887332385069</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7769724665524</v>
+        <v>60.59250503719012</v>
       </c>
       <c r="I13" t="n">
         <v>103.9042395815449</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.55702300360286</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>235.5508264359878</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>145.5781194527617</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>403.8049235411163</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>299.2369313976097</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>53.25535856381365</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>114.8761432958628</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.3244889715107</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.4230006050866</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>4.654044403731007</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>67.23448415106351</v>
+        <v>165.2028514792897</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7769724665524</v>
       </c>
       <c r="I16" t="n">
         <v>103.9042395815449</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>50.41242213647369</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>235.5508264359878</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9497094874595</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.6303049828082</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>90.72896757678342</v>
       </c>
       <c r="G17" t="n">
-        <v>403.8049235411163</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>299.2369313976097</v>
       </c>
       <c r="I17" t="n">
-        <v>53.25535856381365</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,16 +23785,16 @@
         <v>114.8761432958628</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.3244889715107</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.4230006050866</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.2028514792897</v>
+        <v>149.9988515765951</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7769724665524</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>103.9042395815449</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.55702300360286</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>235.5508264359878</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>74.24399773514196</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23980,7 +23980,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>64.90541111780516</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>403.8049235411163</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>114.8761432958628</v>
       </c>
       <c r="T20" t="n">
         <v>216.3244889715107</v>
@@ -24028,16 +24028,16 @@
         <v>254.4230006050866</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>26.81366503811114</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
@@ -24141,10 +24141,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>165.2028514792897</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7769724665524</v>
+        <v>85.56889448215674</v>
       </c>
       <c r="I22" t="n">
         <v>103.9042395815449</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.55702300360286</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>177.9920012840021</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>74.24399773514196</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>67.55702300360286</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>177.9920012840021</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9497094874595</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>15.63238906131863</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>140.4423689411379</v>
       </c>
     </row>
     <row r="26">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -24618,10 +24618,10 @@
         <v>165.2028514792897</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7769724665524</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>103.9042395815449</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>67.55702300360286</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>6.686974731539038</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>59.04177516454089</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
@@ -24855,7 +24855,7 @@
         <v>165.2028514792897</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7769724665524</v>
       </c>
       <c r="I31" t="n">
         <v>103.9042395815449</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>67.55702300360286</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>6.686974731539038</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>152.4429853966817</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>7.666012930125589</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>165.2028514792897</v>
+        <v>153.1995319071903</v>
       </c>
       <c r="H34" t="n">
         <v>144.7769724665524</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>67.55702300360286</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>177.9920012840021</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>144.7769724665524</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>103.9042395815449</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>67.55702300360286</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>67.90734046608119</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>212.8476007014886</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>27.60047224724542</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>67.55702300360286</v>
       </c>
       <c r="S40" t="n">
-        <v>177.9920012840021</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>235.5508264359878</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>39.16481268671077</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.2028514792897</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>103.9042395815449</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>67.55702300360286</v>
       </c>
       <c r="S43" t="n">
-        <v>177.9920012840021</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>150.230392580195</v>
+        <v>208.5047256980226</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
@@ -26031,7 +26031,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
@@ -26040,10 +26040,10 @@
         <v>165.2028514792897</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7769724665524</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>103.9042395815449</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>67.55702300360286</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>6.686974731539038</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>25.25731982362549</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>483547.1761051208</v>
+        <v>483547.1761051207</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>483547.1761051208</v>
+        <v>483547.1761051207</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>785276.5698529526</v>
+        <v>785276.5698529527</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>785276.5698529528</v>
+        <v>785276.5698529527</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>785276.5698529526</v>
+        <v>785276.5698529527</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>785276.5698529525</v>
+        <v>785276.5698529527</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>785276.5698529526</v>
+        <v>785276.5698529527</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>439782.4611876338</v>
+      </c>
+      <c r="C2" t="n">
+        <v>439782.4611876339</v>
+      </c>
+      <c r="D2" t="n">
         <v>439782.4611876337</v>
       </c>
-      <c r="C2" t="n">
-        <v>439782.4611876338</v>
-      </c>
-      <c r="D2" t="n">
-        <v>439782.4611876336</v>
-      </c>
       <c r="E2" t="n">
-        <v>265233.21511411</v>
+        <v>265233.2151141101</v>
       </c>
       <c r="F2" t="n">
-        <v>265233.21511411</v>
+        <v>265233.2151141101</v>
       </c>
       <c r="G2" t="n">
-        <v>265233.2151141101</v>
+        <v>265233.2151141099</v>
       </c>
       <c r="H2" t="n">
         <v>265233.21511411</v>
       </c>
       <c r="I2" t="n">
-        <v>421351.7743265884</v>
+        <v>421351.7743265881</v>
       </c>
       <c r="J2" t="n">
-        <v>421351.774326588</v>
+        <v>421351.7743265882</v>
       </c>
       <c r="K2" t="n">
-        <v>421351.7743265881</v>
+        <v>421351.7743265882</v>
       </c>
       <c r="L2" t="n">
         <v>421351.7743265881</v>
       </c>
       <c r="M2" t="n">
-        <v>421351.7743265882</v>
+        <v>421351.7743265883</v>
       </c>
       <c r="N2" t="n">
-        <v>421351.7743265883</v>
+        <v>421351.7743265884</v>
       </c>
       <c r="O2" t="n">
         <v>421351.7743265883</v>
       </c>
       <c r="P2" t="n">
-        <v>421351.7743265883</v>
+        <v>421351.7743265882</v>
       </c>
     </row>
     <row r="3">
@@ -26429,13 +26429,13 @@
         <v>61580.35243020749</v>
       </c>
       <c r="F4" t="n">
-        <v>61580.35243020752</v>
+        <v>61580.35243020749</v>
       </c>
       <c r="G4" t="n">
-        <v>61580.35243020751</v>
+        <v>61580.35243020749</v>
       </c>
       <c r="H4" t="n">
-        <v>61580.3524302075</v>
+        <v>61580.35243020749</v>
       </c>
       <c r="I4" t="n">
         <v>115030.4594285506</v>
@@ -26484,10 +26484,10 @@
         <v>35800.42262164744</v>
       </c>
       <c r="G5" t="n">
-        <v>35800.42262164745</v>
+        <v>35800.42262164744</v>
       </c>
       <c r="H5" t="n">
-        <v>35800.42262164745</v>
+        <v>35800.42262164744</v>
       </c>
       <c r="I5" t="n">
         <v>81322.28397322368</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-40735.9463044459</v>
+        <v>-40735.94630444581</v>
       </c>
       <c r="C6" t="n">
         <v>131602.0603732674</v>
       </c>
       <c r="D6" t="n">
-        <v>131602.0603732672</v>
+        <v>131602.0603732673</v>
       </c>
       <c r="E6" t="n">
-        <v>765.2361323700752</v>
+        <v>118.757443208985</v>
       </c>
       <c r="F6" t="n">
-        <v>167852.440062255</v>
+        <v>167205.961373094</v>
       </c>
       <c r="G6" t="n">
-        <v>167852.4400622551</v>
+        <v>167205.9613730938</v>
       </c>
       <c r="H6" t="n">
-        <v>167852.440062255</v>
+        <v>167205.9613730939</v>
       </c>
       <c r="I6" t="n">
-        <v>25900.0359828322</v>
+        <v>25831.77417964288</v>
       </c>
       <c r="J6" t="n">
-        <v>90447.82011808432</v>
+        <v>90379.55831489545</v>
       </c>
       <c r="K6" t="n">
-        <v>224999.0309248138</v>
+        <v>224930.7691216249</v>
       </c>
       <c r="L6" t="n">
-        <v>224999.0309248139</v>
+        <v>224930.7691216248</v>
       </c>
       <c r="M6" t="n">
-        <v>224999.0309248139</v>
+        <v>224930.769121625</v>
       </c>
       <c r="N6" t="n">
-        <v>224999.0309248141</v>
+        <v>224930.7691216251</v>
       </c>
       <c r="O6" t="n">
-        <v>224999.0309248141</v>
+        <v>224930.7691216249</v>
       </c>
       <c r="P6" t="n">
-        <v>224999.0309248141</v>
+        <v>224930.7691216248</v>
       </c>
     </row>
   </sheetData>
@@ -26804,10 +26804,10 @@
         <v>514.2529956992304</v>
       </c>
       <c r="G4" t="n">
-        <v>514.2529956992305</v>
+        <v>514.2529956992304</v>
       </c>
       <c r="H4" t="n">
-        <v>514.2529956992305</v>
+        <v>514.2529956992304</v>
       </c>
       <c r="I4" t="n">
         <v>1262.967820560682</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>371.4053408920257</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>265.586498906312</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27475,10 +27475,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>30.31127818242179</v>
+        <v>9.770172716459555</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>79.21381862762362</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>64.54869894515696</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>48.5065000662218</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>400</v>
-      </c>
-      <c r="F5" t="n">
-        <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>365.0442936543241</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,16 +27672,16 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -27700,7 +27700,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>30.31127818242182</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27712,10 +27712,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>9.770172716459555</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>89.7315907565944</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,13 +27833,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>60.49569797502627</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>348.7583628495559</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,13 +27861,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>182.4347645200618</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="F8" t="n">
-        <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -27906,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
@@ -27937,7 +27937,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>30.31127818242182</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>30.31127818242173</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>12.64465583764593</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
@@ -28076,7 +28076,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>514.2529956992304</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>514.2529956992304</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>385.6037249534301</v>
       </c>
       <c r="P2" t="n">
-        <v>385.6037249534301</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
@@ -34783,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>268.8565343323287</v>
+      </c>
+      <c r="N3" t="n">
         <v>514.2529956992304</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>514.2529956992304</v>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
-        <v>429.7312828760203</v>
+        <v>514.2529956992304</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34938,28 +34938,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>514.2529956992304</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>385.6037249534301</v>
       </c>
       <c r="N5" t="n">
-        <v>426.5700337307683</v>
+        <v>514.2529956992304</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>514.2529956992304</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>459.5893832423133</v>
+      </c>
+      <c r="O6" t="n">
         <v>514.2529956992304</v>
-      </c>
-      <c r="M6" t="n">
-        <v>193.9394855628532</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>514.2529956992304</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>128.1037307367796</v>
       </c>
-      <c r="K8" t="n">
+      <c r="N8" t="n">
         <v>514.2529956992304</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>514.2529956992304</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>514.2529956992304</v>
+        <v>483.5739187113126</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>463.6169965168068</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>514.2529956992304</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>514.2529956992304</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>29.85810036629282</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>327.7140532930848</v>
       </c>
       <c r="K11" t="n">
-        <v>514.2529956992304</v>
+        <v>492.1667040710125</v>
       </c>
       <c r="L11" t="n">
         <v>36.45393752190567</v>
@@ -35424,13 +35424,13 @@
         <v>56.27114790583964</v>
       </c>
       <c r="O11" t="n">
-        <v>514.2529956992304</v>
+        <v>47.67991515890789</v>
       </c>
       <c r="P11" t="n">
         <v>514.2529956992304</v>
       </c>
       <c r="Q11" t="n">
-        <v>253.746726916939</v>
+        <v>414.6920457923947</v>
       </c>
       <c r="R11" t="n">
         <v>93.48557616910085</v>
@@ -35491,25 +35491,25 @@
         <v>237.0243785109427</v>
       </c>
       <c r="K12" t="n">
+        <v>16.40998191486234</v>
+      </c>
+      <c r="L12" t="n">
         <v>514.2529956992304</v>
-      </c>
-      <c r="L12" t="n">
-        <v>111.4635559072166</v>
       </c>
       <c r="M12" t="n">
         <v>55.78172833993842</v>
       </c>
       <c r="N12" t="n">
-        <v>514.2529956992304</v>
+        <v>63.15255035273477</v>
       </c>
       <c r="O12" t="n">
         <v>514.2529956992304</v>
       </c>
       <c r="P12" t="n">
-        <v>31.16287969111106</v>
+        <v>514.2529956992304</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.4100703566546073</v>
+        <v>63.47397368738464</v>
       </c>
       <c r="R12" t="n">
         <v>57.63248407723633</v>
@@ -35652,10 +35652,10 @@
         <v>514.2529956992304</v>
       </c>
       <c r="L14" t="n">
-        <v>41.30569559463449</v>
+        <v>107.8532220627887</v>
       </c>
       <c r="M14" t="n">
-        <v>514.2529956992304</v>
+        <v>53.51770836931463</v>
       </c>
       <c r="N14" t="n">
         <v>56.27114790583964</v>
@@ -35664,13 +35664,13 @@
         <v>47.67991515890789</v>
       </c>
       <c r="P14" t="n">
-        <v>26.57965866836794</v>
+        <v>514.2529956992304</v>
       </c>
       <c r="Q14" t="n">
         <v>414.6920457923947</v>
       </c>
       <c r="R14" t="n">
-        <v>93.48557616910085</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>237.0243785109427</v>
       </c>
       <c r="K15" t="n">
         <v>514.2529956992304</v>
       </c>
       <c r="L15" t="n">
-        <v>41.01537627464528</v>
+        <v>134.9736857815101</v>
       </c>
       <c r="M15" t="n">
-        <v>331.2646158218288</v>
+        <v>55.78172833993842</v>
       </c>
       <c r="N15" t="n">
         <v>63.15255035273477</v>
       </c>
       <c r="O15" t="n">
-        <v>514.2529956992304</v>
+        <v>48.68232950293527</v>
       </c>
       <c r="P15" t="n">
         <v>514.2529956992304</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.4100703566546073</v>
+        <v>410.4809360170321</v>
       </c>
       <c r="R15" t="n">
         <v>57.63248407723633</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>327.7140532930848</v>
       </c>
       <c r="K17" t="n">
-        <v>17.21583223568268</v>
+        <v>514.2529956992304</v>
       </c>
       <c r="L17" t="n">
-        <v>501.5606407269775</v>
+        <v>36.45393752190567</v>
       </c>
       <c r="M17" t="n">
-        <v>514.2529956992305</v>
+        <v>53.51770836931463</v>
       </c>
       <c r="N17" t="n">
-        <v>514.2529956992305</v>
+        <v>56.27114790583964</v>
       </c>
       <c r="O17" t="n">
-        <v>47.67991515890789</v>
+        <v>514.2529956992304</v>
       </c>
       <c r="P17" t="n">
         <v>26.57965866836794</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.6920457923947</v>
+        <v>413.7060106547167</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>93.48557616910085</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>237.0243785109427</v>
       </c>
       <c r="K18" t="n">
-        <v>514.2529956992305</v>
+        <v>514.2529956992304</v>
       </c>
       <c r="L18" t="n">
-        <v>41.01537627464528</v>
+        <v>134.9736857815106</v>
       </c>
       <c r="M18" t="n">
-        <v>514.2529956992305</v>
+        <v>55.78172833993842</v>
       </c>
       <c r="N18" t="n">
-        <v>514.2529956992305</v>
+        <v>63.15255035273477</v>
       </c>
       <c r="O18" t="n">
         <v>48.68232950293527</v>
       </c>
       <c r="P18" t="n">
-        <v>31.16287969111106</v>
+        <v>514.2529956992304</v>
       </c>
       <c r="Q18" t="n">
-        <v>372.6145114144075</v>
+        <v>410.4809360170321</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>57.63248407723633</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>327.7140532930848</v>
       </c>
       <c r="K20" t="n">
-        <v>17.21583223568268</v>
+        <v>514.2529956992304</v>
       </c>
       <c r="L20" t="n">
-        <v>514.2529956992305</v>
+        <v>514.2529956992304</v>
       </c>
       <c r="M20" t="n">
-        <v>53.51770836931463</v>
+        <v>134.7912717637354</v>
       </c>
       <c r="N20" t="n">
         <v>56.27114790583964</v>
       </c>
       <c r="O20" t="n">
-        <v>372.5457821099981</v>
+        <v>47.67991515890789</v>
       </c>
       <c r="P20" t="n">
-        <v>514.2529956992305</v>
+        <v>26.57965866836794</v>
       </c>
       <c r="Q20" t="n">
         <v>414.6920457923947</v>
       </c>
       <c r="R20" t="n">
-        <v>93.48557616910085</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>237.0243785109427</v>
       </c>
       <c r="K21" t="n">
         <v>16.40998191486234</v>
       </c>
       <c r="L21" t="n">
-        <v>514.2529956992305</v>
+        <v>514.2529956992304</v>
       </c>
       <c r="M21" t="n">
-        <v>55.78172833993842</v>
+        <v>174.3454322065861</v>
       </c>
       <c r="N21" t="n">
-        <v>514.2529956992305</v>
+        <v>63.15255035273477</v>
       </c>
       <c r="O21" t="n">
-        <v>436.2600825421492</v>
+        <v>48.68232950293527</v>
       </c>
       <c r="P21" t="n">
-        <v>31.16287969111106</v>
+        <v>514.2529956992304</v>
       </c>
       <c r="Q21" t="n">
         <v>410.4809360170321</v>
@@ -36360,7 +36360,7 @@
         <v>327.7140532930848</v>
       </c>
       <c r="K23" t="n">
-        <v>649.9476775745962</v>
+        <v>26.54889970457959</v>
       </c>
       <c r="L23" t="n">
         <v>851.7286283243848</v>
@@ -36375,7 +36375,7 @@
         <v>791.0018689837868</v>
       </c>
       <c r="P23" t="n">
-        <v>31.33195914908558</v>
+        <v>654.7307370191021</v>
       </c>
       <c r="Q23" t="n">
         <v>414.6920457923947</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>237.0243785109427</v>
       </c>
       <c r="K24" t="n">
         <v>16.40998191486234</v>
       </c>
       <c r="L24" t="n">
-        <v>764.8957303069976</v>
+        <v>41.01537627464528</v>
       </c>
       <c r="M24" t="n">
         <v>55.78172833993842</v>
@@ -36454,13 +36454,13 @@
         <v>48.68232950293527</v>
       </c>
       <c r="P24" t="n">
-        <v>31.16287969111106</v>
+        <v>228.0104883490833</v>
       </c>
       <c r="Q24" t="n">
-        <v>62.84008507635863</v>
+        <v>410.4809360170321</v>
       </c>
       <c r="R24" t="n">
-        <v>57.63248407723633</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36600,10 +36600,10 @@
         <v>649.9476775745962</v>
       </c>
       <c r="L26" t="n">
-        <v>851.7286283243848</v>
+        <v>642.7687122225034</v>
       </c>
       <c r="M26" t="n">
-        <v>307.5693478773076</v>
+        <v>930.9681257473237</v>
       </c>
       <c r="N26" t="n">
         <v>909.9723443580326</v>
@@ -36615,7 +36615,7 @@
         <v>654.7307370191021</v>
       </c>
       <c r="Q26" t="n">
-        <v>414.6920457923947</v>
+        <v>0.2531840242608041</v>
       </c>
       <c r="R26" t="n">
         <v>93.48557616910085</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>174.0403507765845</v>
+        <v>237.0243785109427</v>
       </c>
       <c r="K27" t="n">
         <v>532.6461245634158</v>
       </c>
       <c r="L27" t="n">
-        <v>41.01537627464528</v>
+        <v>599.6706729254444</v>
       </c>
       <c r="M27" t="n">
         <v>55.78172833993842</v>
@@ -36691,7 +36691,7 @@
         <v>48.68232950293527</v>
       </c>
       <c r="P27" t="n">
-        <v>652.8022040762684</v>
+        <v>31.16287969111106</v>
       </c>
       <c r="Q27" t="n">
         <v>410.4809360170321</v>
@@ -36837,13 +36837,13 @@
         <v>649.9476775745962</v>
       </c>
       <c r="L29" t="n">
-        <v>228.3298504543689</v>
+        <v>851.7286283243848</v>
       </c>
       <c r="M29" t="n">
         <v>930.9681257473237</v>
       </c>
       <c r="N29" t="n">
-        <v>909.9723443580326</v>
+        <v>286.5735664880168</v>
       </c>
       <c r="O29" t="n">
         <v>791.0018689837868</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>237.0243785109427</v>
       </c>
       <c r="K30" t="n">
-        <v>392.6494850065411</v>
+        <v>532.6461245634158</v>
       </c>
       <c r="L30" t="n">
-        <v>41.01537627464528</v>
+        <v>599.6706729254444</v>
       </c>
       <c r="M30" t="n">
         <v>55.78172833993842</v>
       </c>
       <c r="N30" t="n">
-        <v>998.8288650713513</v>
+        <v>63.15255035273477</v>
       </c>
       <c r="O30" t="n">
         <v>48.68232950293527</v>
@@ -37074,7 +37074,7 @@
         <v>649.9476775745962</v>
       </c>
       <c r="L32" t="n">
-        <v>228.3298504543689</v>
+        <v>851.7286283243848</v>
       </c>
       <c r="M32" t="n">
         <v>930.9681257473237</v>
@@ -37086,13 +37086,13 @@
         <v>791.0018689837868</v>
       </c>
       <c r="P32" t="n">
-        <v>654.7307370191021</v>
+        <v>124.8175353181877</v>
       </c>
       <c r="Q32" t="n">
         <v>414.6920457923947</v>
       </c>
       <c r="R32" t="n">
-        <v>93.48557616910085</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>237.0243785109427</v>
       </c>
       <c r="K33" t="n">
-        <v>16.40998191486234</v>
+        <v>532.6461245634158</v>
       </c>
       <c r="L33" t="n">
         <v>41.01537627464528</v>
@@ -37159,13 +37159,13 @@
         <v>55.78172833993842</v>
       </c>
       <c r="N33" t="n">
-        <v>606.249120934854</v>
+        <v>63.15255035273477</v>
       </c>
       <c r="O33" t="n">
-        <v>817.5015767311113</v>
+        <v>48.68232950293527</v>
       </c>
       <c r="P33" t="n">
-        <v>31.16287969111106</v>
+        <v>589.8181763419101</v>
       </c>
       <c r="Q33" t="n">
         <v>410.4809360170321</v>
@@ -37247,7 +37247,7 @@
         <v>253.1118312723233</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.59405354084655</v>
+        <v>97.59405354084296</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>851.7286283243848</v>
       </c>
       <c r="M35" t="n">
-        <v>930.9681257473237</v>
+        <v>307.5693478773076</v>
       </c>
       <c r="N35" t="n">
         <v>909.9723443580326</v>
@@ -37323,7 +37323,7 @@
         <v>791.0018689837868</v>
       </c>
       <c r="P35" t="n">
-        <v>31.3319591490865</v>
+        <v>654.7307370191021</v>
       </c>
       <c r="Q35" t="n">
         <v>414.6920457923947</v>
@@ -37387,28 +37387,28 @@
         <v>237.0243785109427</v>
       </c>
       <c r="K36" t="n">
-        <v>16.40998191486234</v>
+        <v>532.6461245634158</v>
       </c>
       <c r="L36" t="n">
-        <v>647.933850592995</v>
+        <v>41.01537627464528</v>
       </c>
       <c r="M36" t="n">
         <v>55.78172833993842</v>
       </c>
       <c r="N36" t="n">
-        <v>998.8288650713513</v>
+        <v>63.15255035273477</v>
       </c>
       <c r="O36" t="n">
         <v>48.68232950293527</v>
       </c>
       <c r="P36" t="n">
-        <v>31.16287969111106</v>
+        <v>589.8181763419101</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.4100703566546073</v>
+        <v>410.4809360170321</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>57.63248407723633</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>327.7140532930848</v>
       </c>
       <c r="K38" t="n">
-        <v>26.54889970458045</v>
+        <v>649.9476775745962</v>
       </c>
       <c r="L38" t="n">
         <v>851.7286283243848</v>
       </c>
       <c r="M38" t="n">
-        <v>930.9681257473237</v>
+        <v>307.5693478773076</v>
       </c>
       <c r="N38" t="n">
         <v>909.9723443580326</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>237.0243785109427</v>
       </c>
       <c r="K39" t="n">
-        <v>16.40998191486234</v>
+        <v>532.6461245634158</v>
       </c>
       <c r="L39" t="n">
         <v>41.01537627464528</v>
@@ -37633,19 +37633,19 @@
         <v>55.78172833993842</v>
       </c>
       <c r="N39" t="n">
-        <v>998.8288650713513</v>
+        <v>63.15255035273477</v>
       </c>
       <c r="O39" t="n">
-        <v>270.9858579470705</v>
+        <v>48.68232950293527</v>
       </c>
       <c r="P39" t="n">
-        <v>652.8022040762684</v>
+        <v>589.8181763419101</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.4100703566546073</v>
+        <v>410.4809360170321</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>57.63248407723633</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>327.7140532930848</v>
       </c>
       <c r="K41" t="n">
-        <v>649.9476775745962</v>
+        <v>120.0344758736816</v>
       </c>
       <c r="L41" t="n">
         <v>851.7286283243848</v>
@@ -37797,10 +37797,10 @@
         <v>791.0018689837868</v>
       </c>
       <c r="P41" t="n">
-        <v>539.2563970863221</v>
+        <v>654.7307370191021</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.2531840242608041</v>
+        <v>414.6920457923947</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>237.0243785109427</v>
       </c>
       <c r="K42" t="n">
         <v>532.6461245634158</v>
@@ -37870,19 +37870,19 @@
         <v>55.78172833993842</v>
       </c>
       <c r="N42" t="n">
-        <v>63.15255035273477</v>
+        <v>621.8078470035339</v>
       </c>
       <c r="O42" t="n">
-        <v>817.5015767311113</v>
+        <v>48.68232950293527</v>
       </c>
       <c r="P42" t="n">
-        <v>115.6557917019131</v>
+        <v>31.16287969111106</v>
       </c>
       <c r="Q42" t="n">
         <v>410.4809360170321</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>57.63248407723633</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>327.7140532930848</v>
       </c>
       <c r="K44" t="n">
-        <v>440.9877614727149</v>
+        <v>649.9476775745962</v>
       </c>
       <c r="L44" t="n">
         <v>851.7286283243848</v>
@@ -38028,7 +38028,7 @@
         <v>930.9681257473237</v>
       </c>
       <c r="N44" t="n">
-        <v>909.9723443580326</v>
+        <v>794.4980044252519</v>
       </c>
       <c r="O44" t="n">
         <v>791.0018689837868</v>
@@ -38040,7 +38040,7 @@
         <v>0.2531840242608041</v>
       </c>
       <c r="R44" t="n">
-        <v>93.48557616910085</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>237.0243785109427</v>
       </c>
       <c r="K45" t="n">
-        <v>16.40998191486234</v>
+        <v>532.6461245634158</v>
       </c>
       <c r="L45" t="n">
-        <v>641.7444309339996</v>
+        <v>41.01537627464528</v>
       </c>
       <c r="M45" t="n">
         <v>55.78172833993842</v>
@@ -38110,10 +38110,10 @@
         <v>63.15255035273477</v>
       </c>
       <c r="O45" t="n">
-        <v>817.5015767311113</v>
+        <v>48.68232950293527</v>
       </c>
       <c r="P45" t="n">
-        <v>31.16287969111106</v>
+        <v>647.4506604191463</v>
       </c>
       <c r="Q45" t="n">
         <v>410.4809360170321</v>
